--- a/docs/간이 스탯 계산식.xlsx
+++ b/docs/간이 스탯 계산식.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\molu\molu\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875A03CC-34F6-4AE0-8FAE-1C6ABB056617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C50309-BA74-43B8-B352-3B8951F1917A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="60" windowWidth="20388" windowHeight="12696" xr2:uid="{5147BE65-AD01-43B4-BCC8-E6E7C0348578}"/>
+    <workbookView xWindow="4860" yWindow="60" windowWidth="18180" windowHeight="12696" xr2:uid="{5147BE65-AD01-43B4-BCC8-E6E7C0348578}"/>
   </bookViews>
   <sheets>
-    <sheet name="고블린 스탯" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="구울 스탯" sheetId="3" r:id="rId1"/>
+    <sheet name="고블린 스탯" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>몹hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +267,1217 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'구울 스탯'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>연산</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'구울 스탯'!$K$2:$K$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC74-4FBD-9DCE-87DAAEC97B5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'구울 스탯'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>생명력</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'구울 스탯'!$L$2:$L$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CC74-4FBD-9DCE-87DAAEC97B5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'구울 스탯'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>데미지</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'구울 스탯'!$M$2:$M$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>628</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CC74-4FBD-9DCE-87DAAEC97B5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'구울 스탯'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>공격쿨</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'구울 스탯'!$N$2:$N$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CC74-4FBD-9DCE-87DAAEC97B5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'구울 스탯'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>경험치</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'구울 스탯'!$P$2:$P$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CC74-4FBD-9DCE-87DAAEC97B5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2129161311"/>
+        <c:axId val="108437759"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2129161311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108437759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="108437759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2129161311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'고블린 스탯'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1423,6 +2635,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1978,7 +3230,566 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>129985</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>210672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>17928</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53040E91-B4A9-42D9-8C16-36EFBC81CD5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2315,11 +4126,3042 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B37FC4-7778-42AF-B66D-848027D55C0B}">
+  <dimension ref="A1:X51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" customWidth="1"/>
+    <col min="3" max="3" width="3.69921875" customWidth="1"/>
+    <col min="5" max="5" width="4.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.296875" customWidth="1"/>
+    <col min="9" max="9" width="8.59765625" customWidth="1"/>
+    <col min="12" max="14" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A1" t="str">
+        <f t="shared" ref="A1:A51" si="0">D1&amp;","&amp;""""&amp;E1&amp;""""&amp;","&amp;""""&amp;F1&amp;""""&amp;","&amp;""""&amp;G1&amp;""""&amp;","&amp;""""&amp;H1&amp;""""&amp;","&amp;""""&amp;I1&amp;""""</f>
+        <v>---,"HP","Damage","ATK_Cool","MoveSpeed","DropEXP"</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,"6","4","3","80","4"</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>L2</f>
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:I17" si="1">M2</f>
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>80</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>3</v>
+      </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="W2">
+        <v>5</v>
+      </c>
+      <c r="X2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v>2,"7","5","3","81","4"</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:I51" si="2">L3</f>
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:P34" si="3">ROUNDDOWN((L2+VLOOKUP(VLOOKUP($K3,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K3,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>3,"8","6","3","82","4"</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>6</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>4,"9","7","3","83","4"</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>11</v>
+      </c>
+      <c r="S5">
+        <v>15</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>5,"10","8","3","84","4"</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>16</v>
+      </c>
+      <c r="S6">
+        <v>20</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>6,"11","9","4","86","5"</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>21</v>
+      </c>
+      <c r="S7">
+        <v>25</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>7,"12","10","5","88","6"</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>26</v>
+      </c>
+      <c r="S8">
+        <v>30</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>8,"13","11","6","90","7"</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>31</v>
+      </c>
+      <c r="S9">
+        <v>35</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>9,"14","12","7","92","8"</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>36</v>
+      </c>
+      <c r="S10">
+        <v>40</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>10,"15","13","8","94","9"</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="R11">
+        <v>41</v>
+      </c>
+      <c r="S11">
+        <v>45</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
+      </c>
+      <c r="W11">
+        <v>4</v>
+      </c>
+      <c r="X11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>11,"17","15","9","96","10"</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>46</v>
+      </c>
+      <c r="S12">
+        <v>50</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>4</v>
+      </c>
+      <c r="W12">
+        <v>5</v>
+      </c>
+      <c r="X12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>12,"19","17","10","98","11"</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>13,"22","19","11","101","12"</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <v>5</v>
+      </c>
+      <c r="X14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>14,"25","22","12","104","13"</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>10</v>
+      </c>
+      <c r="T15">
+        <v>1.01</v>
+      </c>
+      <c r="U15">
+        <v>1.01</v>
+      </c>
+      <c r="V15">
+        <v>1.02</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>15,"28","25","13","107","14"</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="R16">
+        <v>11</v>
+      </c>
+      <c r="S16">
+        <v>20</v>
+      </c>
+      <c r="T16">
+        <v>1.05</v>
+      </c>
+      <c r="U16">
+        <v>1.05</v>
+      </c>
+      <c r="V16">
+        <v>1.02</v>
+      </c>
+      <c r="W16">
+        <v>1.01</v>
+      </c>
+      <c r="X16">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>16,"31","28","15","111","15"</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="R17">
+        <v>21</v>
+      </c>
+      <c r="S17">
+        <v>30</v>
+      </c>
+      <c r="T17">
+        <v>1.05</v>
+      </c>
+      <c r="U17">
+        <v>1.05</v>
+      </c>
+      <c r="V17">
+        <v>1.04</v>
+      </c>
+      <c r="W17">
+        <v>1.02</v>
+      </c>
+      <c r="X17">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>17,"34","31","17","115","16"</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="R18">
+        <v>31</v>
+      </c>
+      <c r="S18">
+        <v>40</v>
+      </c>
+      <c r="T18">
+        <v>1.08</v>
+      </c>
+      <c r="U18">
+        <v>1.08</v>
+      </c>
+      <c r="V18">
+        <v>1.06</v>
+      </c>
+      <c r="W18">
+        <v>1.02</v>
+      </c>
+      <c r="X18">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>18,"37","34","19","119","17"</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="R19">
+        <v>41</v>
+      </c>
+      <c r="S19">
+        <v>50</v>
+      </c>
+      <c r="T19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V19">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="W19">
+        <v>1.03</v>
+      </c>
+      <c r="X19">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>19,"40","37","21","123","18"</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>19</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>20,"44","40","23","127","19"</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="V21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>21,"48","44","26","132","20"</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K22">
+        <v>21</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>22,"52","48","29","137","21"</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="K23">
+        <v>22</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>23,"56","52","32","142","22"</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="K24">
+        <v>23</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>142</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>24,"60","56","35","147","23"</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="K25">
+        <v>24</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>147</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>25,"65","60","38","153","24"</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="K26">
+        <v>25</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>153</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>26,"70","65","41","159","26"</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="K27">
+        <v>26</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="3"/>
+        <v>159</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>27,"75","70","44","165","28"</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="K28">
+        <v>27</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>28,"80","75","47","171","30"</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="K29">
+        <v>28</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="3"/>
+        <v>171</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>29,"86","80","50","177","32"</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="K30">
+        <v>29</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>177</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>30,"92","86","54","183","34"</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="K31">
+        <v>30</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="3"/>
+        <v>183</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>31,"102","96","60","190","37"</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="K32">
+        <v>31</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="3"/>
+        <v>190</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>32,"113","106","66","197","40"</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>197</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="K33">
+        <v>32</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>33,"125","117","73","205","43"</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>205</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="K34">
+        <v>33</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>34,"138","129","80","213","46"</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>213</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="K35">
+        <v>34</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ref="L35:P51" si="4">ROUNDDOWN((L34+VLOOKUP(VLOOKUP($K35,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K35,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <v>138</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="4"/>
+        <v>213</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>35,"152","142","87","221","49"</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>221</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="K36">
+        <v>35</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="4"/>
+        <v>142</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="4"/>
+        <v>221</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>36,"167","156","95","229","52"</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>229</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="K37">
+        <v>36</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>167</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="4"/>
+        <v>229</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>37,"183","171","103","237","55"</v>
+      </c>
+      <c r="D38">
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="K38">
+        <v>37</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>183</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="4"/>
+        <v>171</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="4"/>
+        <v>237</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>38,"200","187","112","245","58"</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>245</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="K39">
+        <v>38</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="4"/>
+        <v>187</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="4"/>
+        <v>245</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>39,"219","205","121","253","61"</v>
+      </c>
+      <c r="D40">
+        <v>39</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>219</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>205</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>253</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="K40">
+        <v>39</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>219</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="4"/>
+        <v>205</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="4"/>
+        <v>253</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>40,"239","224","131","262","64"</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>239</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>262</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="K41">
+        <v>40</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>239</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="4"/>
+        <v>224</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="4"/>
+        <v>262</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>41,"266","249","147","273","69"</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>266</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>249</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>273</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="K42">
+        <v>41</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>266</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="4"/>
+        <v>249</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="4"/>
+        <v>147</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="4"/>
+        <v>273</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>42,"295","277","164","285","74"</v>
+      </c>
+      <c r="D43">
+        <v>42</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>277</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>285</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="K43">
+        <v>42</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>295</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="4"/>
+        <v>277</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="4"/>
+        <v>164</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="4"/>
+        <v>285</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>43,"327","308","183","297","80"</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>327</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>308</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>297</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="K44">
+        <v>43</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>327</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="4"/>
+        <v>308</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="4"/>
+        <v>183</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="4"/>
+        <v>297</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>44,"363","342","203","310","86"</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>363</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>342</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>203</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="K45">
+        <v>44</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="4"/>
+        <v>363</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="4"/>
+        <v>342</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="4"/>
+        <v>203</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>45,"402","379","225","323","92"</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>402</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>379</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>323</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="K46">
+        <v>45</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="4"/>
+        <v>402</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="4"/>
+        <v>379</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="4"/>
+        <v>323</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>46,"445","420","249","337","98"</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>445</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>249</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>337</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="K47">
+        <v>46</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="4"/>
+        <v>445</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="4"/>
+        <v>249</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="4"/>
+        <v>337</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>47,"492","465","275","352","105"</v>
+      </c>
+      <c r="D48">
+        <v>47</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>492</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>465</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>275</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>352</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="K48">
+        <v>47</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="4"/>
+        <v>492</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="4"/>
+        <v>465</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="4"/>
+        <v>352</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>48,"544","514","304","367","112"</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>544</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>514</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>304</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>367</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="K49">
+        <v>48</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="4"/>
+        <v>544</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="4"/>
+        <v>514</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="4"/>
+        <v>304</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="4"/>
+        <v>367</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>49,"601","568","335","383","119"</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>601</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>568</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>335</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>383</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="K50">
+        <v>49</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="4"/>
+        <v>601</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="4"/>
+        <v>568</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="4"/>
+        <v>335</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="4"/>
+        <v>383</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>50,"664","628","369","399","126"</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>664</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>628</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>369</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>399</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="K51">
+        <v>50</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="4"/>
+        <v>664</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="4"/>
+        <v>628</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="4"/>
+        <v>369</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="4"/>
+        <v>399</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D5F372-2DDB-4F77-B071-F1B10C1517CE}">
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
@@ -2337,7 +7179,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" t="str">
-        <f>D1&amp;","&amp;""""&amp;E1&amp;""""&amp;","&amp;""""&amp;F1&amp;""""&amp;","&amp;""""&amp;G1&amp;""""&amp;","&amp;""""&amp;H1&amp;""""&amp;","&amp;""""&amp;I1&amp;""""</f>
+        <f t="shared" ref="A1:A32" si="0">D1&amp;","&amp;""""&amp;E1&amp;""""&amp;","&amp;""""&amp;F1&amp;""""&amp;","&amp;""""&amp;G1&amp;""""&amp;","&amp;""""&amp;H1&amp;""""&amp;","&amp;""""&amp;I1&amp;""""</f>
         <v>---,"HP","Damage","ATK_Cool","MoveSpeed","DropEXP"</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -2394,7 +7236,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" t="str">
-        <f>D2&amp;","&amp;""""&amp;E2&amp;""""&amp;","&amp;""""&amp;F2&amp;""""&amp;","&amp;""""&amp;G2&amp;""""&amp;","&amp;""""&amp;H2&amp;""""&amp;","&amp;""""&amp;I2&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>1,"4","2","2","100","3"</v>
       </c>
       <c r="D2">
@@ -2405,19 +7247,19 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:I2" si="0">M2</f>
+        <f t="shared" ref="F2:I2" si="1">M2</f>
         <v>2</v>
       </c>
       <c r="G2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K2">
@@ -2456,53 +7298,53 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" t="str">
-        <f>D3&amp;","&amp;""""&amp;E3&amp;""""&amp;","&amp;""""&amp;F3&amp;""""&amp;","&amp;""""&amp;G3&amp;""""&amp;","&amp;""""&amp;H3&amp;""""&amp;","&amp;""""&amp;I3&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>2,"5","3","2","100","3"</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E51" si="1">L3</f>
+        <f t="shared" ref="E3:E51" si="2">L3</f>
         <v>5</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F51" si="2">M3</f>
+        <f t="shared" ref="F3:F51" si="3">M3</f>
         <v>3</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G51" si="3">N3</f>
+        <f t="shared" ref="G3:G51" si="4">N3</f>
         <v>2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H51" si="4">O3</f>
+        <f t="shared" ref="H3:H51" si="5">O3</f>
         <v>100</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I51" si="5">P3</f>
+        <f t="shared" ref="I3:I51" si="6">P3</f>
         <v>3</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3">
-        <f>ROUNDDOWN((L2+VLOOKUP(VLOOKUP($K3,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K3,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" ref="L3:L34" si="7">ROUNDDOWN((L2+VLOOKUP(VLOOKUP($K3,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K3,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
         <v>5</v>
       </c>
       <c r="M3">
-        <f>ROUNDDOWN((M2+VLOOKUP(VLOOKUP($K3,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K3,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" ref="M3:M34" si="8">ROUNDDOWN((M2+VLOOKUP(VLOOKUP($K3,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K3,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
         <v>3</v>
       </c>
       <c r="N3">
-        <f>ROUNDDOWN((N2+VLOOKUP(VLOOKUP($K3,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K3,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" ref="N3:N34" si="9">ROUNDDOWN((N2+VLOOKUP(VLOOKUP($K3,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K3,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
         <v>2</v>
       </c>
       <c r="O3">
-        <f>ROUNDDOWN((O2+VLOOKUP(VLOOKUP($K3,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K3,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" ref="O3:O34" si="10">ROUNDDOWN((O2+VLOOKUP(VLOOKUP($K3,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K3,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
         <v>100</v>
       </c>
       <c r="P3">
-        <f>ROUNDDOWN((P2+VLOOKUP(VLOOKUP($K3,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K3,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" ref="P3:P34" si="11">ROUNDDOWN((P2+VLOOKUP(VLOOKUP($K3,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K3,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
         <v>3</v>
       </c>
       <c r="R3">
@@ -2529,53 +7371,53 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" t="str">
-        <f>D4&amp;","&amp;""""&amp;E4&amp;""""&amp;","&amp;""""&amp;F4&amp;""""&amp;","&amp;""""&amp;G4&amp;""""&amp;","&amp;""""&amp;H4&amp;""""&amp;","&amp;""""&amp;I4&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>3,"6","4","2","100","3"</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4">
-        <f>ROUNDDOWN((L3+VLOOKUP(VLOOKUP($K4,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K4,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="M4">
-        <f>ROUNDDOWN((M3+VLOOKUP(VLOOKUP($K4,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K4,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="N4">
-        <f>ROUNDDOWN((N3+VLOOKUP(VLOOKUP($K4,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K4,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O4">
-        <f>ROUNDDOWN((O3+VLOOKUP(VLOOKUP($K4,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K4,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="P4">
-        <f>ROUNDDOWN((P3+VLOOKUP(VLOOKUP($K4,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K4,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="R4">
@@ -2602,53 +7444,53 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" t="str">
-        <f>D5&amp;","&amp;""""&amp;E5&amp;""""&amp;","&amp;""""&amp;F5&amp;""""&amp;","&amp;""""&amp;G5&amp;""""&amp;","&amp;""""&amp;H5&amp;""""&amp;","&amp;""""&amp;I5&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>4,"7","5","2","100","3"</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5">
-        <f>ROUNDDOWN((L4+VLOOKUP(VLOOKUP($K5,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K5,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="M5">
-        <f>ROUNDDOWN((M4+VLOOKUP(VLOOKUP($K5,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K5,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="N5">
-        <f>ROUNDDOWN((N4+VLOOKUP(VLOOKUP($K5,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K5,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O5">
-        <f>ROUNDDOWN((O4+VLOOKUP(VLOOKUP($K5,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K5,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="P5">
-        <f>ROUNDDOWN((P4+VLOOKUP(VLOOKUP($K5,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K5,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="R5">
@@ -2675,53 +7517,53 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" t="str">
-        <f>D6&amp;","&amp;""""&amp;E6&amp;""""&amp;","&amp;""""&amp;F6&amp;""""&amp;","&amp;""""&amp;G6&amp;""""&amp;","&amp;""""&amp;H6&amp;""""&amp;","&amp;""""&amp;I6&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>5,"8","6","2","100","3"</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6">
-        <f>ROUNDDOWN((L5+VLOOKUP(VLOOKUP($K6,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K6,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="M6">
-        <f>ROUNDDOWN((M5+VLOOKUP(VLOOKUP($K6,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K6,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="N6">
-        <f>ROUNDDOWN((N5+VLOOKUP(VLOOKUP($K6,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K6,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O6">
-        <f>ROUNDDOWN((O5+VLOOKUP(VLOOKUP($K6,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K6,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="P6">
-        <f>ROUNDDOWN((P5+VLOOKUP(VLOOKUP($K6,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K6,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="R6">
@@ -2748,53 +7590,53 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" t="str">
-        <f>D7&amp;","&amp;""""&amp;E7&amp;""""&amp;","&amp;""""&amp;F7&amp;""""&amp;","&amp;""""&amp;G7&amp;""""&amp;","&amp;""""&amp;H7&amp;""""&amp;","&amp;""""&amp;I7&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>6,"9","7","2","102","3"</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
       <c r="I7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7">
-        <f>ROUNDDOWN((L6+VLOOKUP(VLOOKUP($K7,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K7,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="M7">
-        <f>ROUNDDOWN((M6+VLOOKUP(VLOOKUP($K7,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K7,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="N7">
-        <f>ROUNDDOWN((N6+VLOOKUP(VLOOKUP($K7,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K7,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O7">
-        <f>ROUNDDOWN((O6+VLOOKUP(VLOOKUP($K7,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K7,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>102</v>
       </c>
       <c r="P7">
-        <f>ROUNDDOWN((P6+VLOOKUP(VLOOKUP($K7,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K7,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="R7">
@@ -2821,53 +7663,53 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" t="str">
-        <f>D8&amp;","&amp;""""&amp;E8&amp;""""&amp;","&amp;""""&amp;F8&amp;""""&amp;","&amp;""""&amp;G8&amp;""""&amp;","&amp;""""&amp;H8&amp;""""&amp;","&amp;""""&amp;I8&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>7,"10","8","2","104","3"</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="I8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8">
-        <f>ROUNDDOWN((L7+VLOOKUP(VLOOKUP($K8,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K8,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="M8">
-        <f>ROUNDDOWN((M7+VLOOKUP(VLOOKUP($K8,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K8,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="N8">
-        <f>ROUNDDOWN((N7+VLOOKUP(VLOOKUP($K8,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K8,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O8">
-        <f>ROUNDDOWN((O7+VLOOKUP(VLOOKUP($K8,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K8,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>104</v>
       </c>
       <c r="P8">
-        <f>ROUNDDOWN((P7+VLOOKUP(VLOOKUP($K8,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K8,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="R8">
@@ -2894,53 +7736,53 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" t="str">
-        <f>D9&amp;","&amp;""""&amp;E9&amp;""""&amp;","&amp;""""&amp;F9&amp;""""&amp;","&amp;""""&amp;G9&amp;""""&amp;","&amp;""""&amp;H9&amp;""""&amp;","&amp;""""&amp;I9&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>8,"11","9","2","106","3"</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
       <c r="I9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9">
-        <f>ROUNDDOWN((L8+VLOOKUP(VLOOKUP($K9,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K9,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="M9">
-        <f>ROUNDDOWN((M8+VLOOKUP(VLOOKUP($K9,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K9,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="N9">
-        <f>ROUNDDOWN((N8+VLOOKUP(VLOOKUP($K9,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K9,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O9">
-        <f>ROUNDDOWN((O8+VLOOKUP(VLOOKUP($K9,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K9,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>106</v>
       </c>
       <c r="P9">
-        <f>ROUNDDOWN((P8+VLOOKUP(VLOOKUP($K9,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K9,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="R9">
@@ -2967,53 +7809,53 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" t="str">
-        <f>D10&amp;","&amp;""""&amp;E10&amp;""""&amp;","&amp;""""&amp;F10&amp;""""&amp;","&amp;""""&amp;G10&amp;""""&amp;","&amp;""""&amp;H10&amp;""""&amp;","&amp;""""&amp;I10&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>9,"12","10","2","108","3"</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="I10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10">
-        <f>ROUNDDOWN((L9+VLOOKUP(VLOOKUP($K10,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K10,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="M10">
-        <f>ROUNDDOWN((M9+VLOOKUP(VLOOKUP($K10,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K10,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="N10">
-        <f>ROUNDDOWN((N9+VLOOKUP(VLOOKUP($K10,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K10,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O10">
-        <f>ROUNDDOWN((O9+VLOOKUP(VLOOKUP($K10,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K10,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>108</v>
       </c>
       <c r="P10">
-        <f>ROUNDDOWN((P9+VLOOKUP(VLOOKUP($K10,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K10,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="R10">
@@ -3040,53 +7882,53 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" t="str">
-        <f>D11&amp;","&amp;""""&amp;E11&amp;""""&amp;","&amp;""""&amp;F11&amp;""""&amp;","&amp;""""&amp;G11&amp;""""&amp;","&amp;""""&amp;H11&amp;""""&amp;","&amp;""""&amp;I11&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>10,"13","11","2","110","3"</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="I11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11">
-        <f>ROUNDDOWN((L10+VLOOKUP(VLOOKUP($K11,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K11,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="M11">
-        <f>ROUNDDOWN((M10+VLOOKUP(VLOOKUP($K11,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K11,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="N11">
-        <f>ROUNDDOWN((N10+VLOOKUP(VLOOKUP($K11,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K11,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O11">
-        <f>ROUNDDOWN((O10+VLOOKUP(VLOOKUP($K11,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K11,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="P11">
-        <f>ROUNDDOWN((P10+VLOOKUP(VLOOKUP($K11,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K11,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="R11">
@@ -3113,53 +7955,53 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" t="str">
-        <f>D12&amp;","&amp;""""&amp;E12&amp;""""&amp;","&amp;""""&amp;F12&amp;""""&amp;","&amp;""""&amp;G12&amp;""""&amp;","&amp;""""&amp;H12&amp;""""&amp;","&amp;""""&amp;I12&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>11,"15","13","3","113","4"</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
       <c r="I12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12">
-        <f>ROUNDDOWN((L11+VLOOKUP(VLOOKUP($K12,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K12,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="M12">
-        <f>ROUNDDOWN((M11+VLOOKUP(VLOOKUP($K12,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K12,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="N12">
-        <f>ROUNDDOWN((N11+VLOOKUP(VLOOKUP($K12,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K12,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="O12">
-        <f>ROUNDDOWN((O11+VLOOKUP(VLOOKUP($K12,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K12,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>113</v>
       </c>
       <c r="P12">
-        <f>ROUNDDOWN((P11+VLOOKUP(VLOOKUP($K12,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K12,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="R12">
@@ -3186,105 +8028,105 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" t="str">
-        <f>D13&amp;","&amp;""""&amp;E13&amp;""""&amp;","&amp;""""&amp;F13&amp;""""&amp;","&amp;""""&amp;G13&amp;""""&amp;","&amp;""""&amp;H13&amp;""""&amp;","&amp;""""&amp;I13&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>12,"17","15","4","116","5"</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>116</v>
       </c>
       <c r="I13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K13">
         <v>12</v>
       </c>
       <c r="L13">
-        <f>ROUNDDOWN((L12+VLOOKUP(VLOOKUP($K13,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K13,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="M13">
-        <f>ROUNDDOWN((M12+VLOOKUP(VLOOKUP($K13,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K13,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="N13">
-        <f>ROUNDDOWN((N12+VLOOKUP(VLOOKUP($K13,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K13,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O13">
-        <f>ROUNDDOWN((O12+VLOOKUP(VLOOKUP($K13,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K13,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>116</v>
       </c>
       <c r="P13">
-        <f>ROUNDDOWN((P12+VLOOKUP(VLOOKUP($K13,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K13,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" t="str">
-        <f>D14&amp;","&amp;""""&amp;E14&amp;""""&amp;","&amp;""""&amp;F14&amp;""""&amp;","&amp;""""&amp;G14&amp;""""&amp;","&amp;""""&amp;H14&amp;""""&amp;","&amp;""""&amp;I14&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>13,"19","17","5","119","6"</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>119</v>
       </c>
       <c r="I14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K14">
         <v>13</v>
       </c>
       <c r="L14">
-        <f>ROUNDDOWN((L13+VLOOKUP(VLOOKUP($K14,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K14,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="M14">
-        <f>ROUNDDOWN((M13+VLOOKUP(VLOOKUP($K14,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K14,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="N14">
-        <f>ROUNDDOWN((N13+VLOOKUP(VLOOKUP($K14,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K14,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="O14">
-        <f>ROUNDDOWN((O13+VLOOKUP(VLOOKUP($K14,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K14,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>119</v>
       </c>
       <c r="P14">
-        <f>ROUNDDOWN((P13+VLOOKUP(VLOOKUP($K14,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K14,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="T14">
@@ -3305,53 +8147,53 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" t="str">
-        <f>D15&amp;","&amp;""""&amp;E15&amp;""""&amp;","&amp;""""&amp;F15&amp;""""&amp;","&amp;""""&amp;G15&amp;""""&amp;","&amp;""""&amp;H15&amp;""""&amp;","&amp;""""&amp;I15&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>14,"22","19","6","122","7"</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>122</v>
       </c>
       <c r="I15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="K15">
         <v>14</v>
       </c>
       <c r="L15">
-        <f>ROUNDDOWN((L14+VLOOKUP(VLOOKUP($K15,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K15,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="M15">
-        <f>ROUNDDOWN((M14+VLOOKUP(VLOOKUP($K15,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K15,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="N15">
-        <f>ROUNDDOWN((N14+VLOOKUP(VLOOKUP($K15,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K15,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="O15">
-        <f>ROUNDDOWN((O14+VLOOKUP(VLOOKUP($K15,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K15,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>122</v>
       </c>
       <c r="P15">
-        <f>ROUNDDOWN((P14+VLOOKUP(VLOOKUP($K15,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K15,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="R15">
@@ -3378,53 +8220,53 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" t="str">
-        <f>D16&amp;","&amp;""""&amp;E16&amp;""""&amp;","&amp;""""&amp;F16&amp;""""&amp;","&amp;""""&amp;G16&amp;""""&amp;","&amp;""""&amp;H16&amp;""""&amp;","&amp;""""&amp;I16&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>15,"25","22","7","125","8"</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="H16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
       <c r="I16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16">
-        <f>ROUNDDOWN((L15+VLOOKUP(VLOOKUP($K16,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K16,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="M16">
-        <f>ROUNDDOWN((M15+VLOOKUP(VLOOKUP($K16,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K16,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="N16">
-        <f>ROUNDDOWN((N15+VLOOKUP(VLOOKUP($K16,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K16,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="O16">
-        <f>ROUNDDOWN((O15+VLOOKUP(VLOOKUP($K16,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K16,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>125</v>
       </c>
       <c r="P16">
-        <f>ROUNDDOWN((P15+VLOOKUP(VLOOKUP($K16,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K16,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="R16">
@@ -3451,53 +8293,53 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" t="str">
-        <f>D17&amp;","&amp;""""&amp;E17&amp;""""&amp;","&amp;""""&amp;F17&amp;""""&amp;","&amp;""""&amp;G17&amp;""""&amp;","&amp;""""&amp;H17&amp;""""&amp;","&amp;""""&amp;I17&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>16,"28","25","8","128","9"</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="H17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="I17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="K17">
         <v>16</v>
       </c>
       <c r="L17">
-        <f>ROUNDDOWN((L16+VLOOKUP(VLOOKUP($K17,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K17,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="M17">
-        <f>ROUNDDOWN((M16+VLOOKUP(VLOOKUP($K17,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K17,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="N17">
-        <f>ROUNDDOWN((N16+VLOOKUP(VLOOKUP($K17,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K17,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="O17">
-        <f>ROUNDDOWN((O16+VLOOKUP(VLOOKUP($K17,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K17,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>128</v>
       </c>
       <c r="P17">
-        <f>ROUNDDOWN((P16+VLOOKUP(VLOOKUP($K17,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K17,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="R17">
@@ -3524,53 +8366,53 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" t="str">
-        <f>D18&amp;","&amp;""""&amp;E18&amp;""""&amp;","&amp;""""&amp;F18&amp;""""&amp;","&amp;""""&amp;G18&amp;""""&amp;","&amp;""""&amp;H18&amp;""""&amp;","&amp;""""&amp;I18&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>17,"31","28","9","131","10"</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="H18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>131</v>
       </c>
       <c r="I18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="K18">
         <v>17</v>
       </c>
       <c r="L18">
-        <f>ROUNDDOWN((L17+VLOOKUP(VLOOKUP($K18,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K18,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="M18">
-        <f>ROUNDDOWN((M17+VLOOKUP(VLOOKUP($K18,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K18,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="N18">
-        <f>ROUNDDOWN((N17+VLOOKUP(VLOOKUP($K18,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K18,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="O18">
-        <f>ROUNDDOWN((O17+VLOOKUP(VLOOKUP($K18,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K18,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>131</v>
       </c>
       <c r="P18">
-        <f>ROUNDDOWN((P17+VLOOKUP(VLOOKUP($K18,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K18,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="R18">
@@ -3597,53 +8439,53 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" t="str">
-        <f>D19&amp;","&amp;""""&amp;E19&amp;""""&amp;","&amp;""""&amp;F19&amp;""""&amp;","&amp;""""&amp;G19&amp;""""&amp;","&amp;""""&amp;H19&amp;""""&amp;","&amp;""""&amp;I19&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>18,"34","31","10","134","11"</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>134</v>
       </c>
       <c r="I19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="K19">
         <v>18</v>
       </c>
       <c r="L19">
-        <f>ROUNDDOWN((L18+VLOOKUP(VLOOKUP($K19,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K19,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="M19">
-        <f>ROUNDDOWN((M18+VLOOKUP(VLOOKUP($K19,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K19,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="N19">
-        <f>ROUNDDOWN((N18+VLOOKUP(VLOOKUP($K19,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K19,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="O19">
-        <f>ROUNDDOWN((O18+VLOOKUP(VLOOKUP($K19,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K19,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>134</v>
       </c>
       <c r="P19">
-        <f>ROUNDDOWN((P18+VLOOKUP(VLOOKUP($K19,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K19,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="R19">
@@ -3670,105 +8512,105 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" t="str">
-        <f>D20&amp;","&amp;""""&amp;E20&amp;""""&amp;","&amp;""""&amp;F20&amp;""""&amp;","&amp;""""&amp;G20&amp;""""&amp;","&amp;""""&amp;H20&amp;""""&amp;","&amp;""""&amp;I20&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>19,"37","34","11","137","12"</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="H20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>137</v>
       </c>
       <c r="I20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="K20">
         <v>19</v>
       </c>
       <c r="L20">
-        <f>ROUNDDOWN((L19+VLOOKUP(VLOOKUP($K20,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K20,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="M20">
-        <f>ROUNDDOWN((M19+VLOOKUP(VLOOKUP($K20,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K20,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="N20">
-        <f>ROUNDDOWN((N19+VLOOKUP(VLOOKUP($K20,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K20,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="O20">
-        <f>ROUNDDOWN((O19+VLOOKUP(VLOOKUP($K20,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K20,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>137</v>
       </c>
       <c r="P20">
-        <f>ROUNDDOWN((P19+VLOOKUP(VLOOKUP($K20,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K20,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" t="str">
-        <f>D21&amp;","&amp;""""&amp;E21&amp;""""&amp;","&amp;""""&amp;F21&amp;""""&amp;","&amp;""""&amp;G21&amp;""""&amp;","&amp;""""&amp;H21&amp;""""&amp;","&amp;""""&amp;I21&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>20,"40","37","12","140","13"</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="H21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="I21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21">
-        <f>ROUNDDOWN((L20+VLOOKUP(VLOOKUP($K21,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K21,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="M21">
-        <f>ROUNDDOWN((M20+VLOOKUP(VLOOKUP($K21,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K21,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="N21">
-        <f>ROUNDDOWN((N20+VLOOKUP(VLOOKUP($K21,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K21,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="O21">
-        <f>ROUNDDOWN((O20+VLOOKUP(VLOOKUP($K21,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K21,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="P21">
-        <f>ROUNDDOWN((P20+VLOOKUP(VLOOKUP($K21,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K21,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="V21" t="s">
@@ -3777,1561 +8619,1561 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" t="str">
-        <f>D22&amp;","&amp;""""&amp;E22&amp;""""&amp;","&amp;""""&amp;F22&amp;""""&amp;","&amp;""""&amp;G22&amp;""""&amp;","&amp;""""&amp;H22&amp;""""&amp;","&amp;""""&amp;I22&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>21,"44","40","13","145","14"</v>
       </c>
       <c r="D22">
         <v>21</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="F22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="H22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>145</v>
       </c>
       <c r="I22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="K22">
         <v>21</v>
       </c>
       <c r="L22">
-        <f>ROUNDDOWN((L21+VLOOKUP(VLOOKUP($K22,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K22,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="M22">
-        <f>ROUNDDOWN((M21+VLOOKUP(VLOOKUP($K22,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K22,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="N22">
-        <f>ROUNDDOWN((N21+VLOOKUP(VLOOKUP($K22,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K22,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="O22">
-        <f>ROUNDDOWN((O21+VLOOKUP(VLOOKUP($K22,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K22,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>145</v>
       </c>
       <c r="P22">
-        <f>ROUNDDOWN((P21+VLOOKUP(VLOOKUP($K22,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K22,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" t="str">
-        <f>D23&amp;","&amp;""""&amp;E23&amp;""""&amp;","&amp;""""&amp;F23&amp;""""&amp;","&amp;""""&amp;G23&amp;""""&amp;","&amp;""""&amp;H23&amp;""""&amp;","&amp;""""&amp;I23&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>22,"48","44","14","150","15"</v>
       </c>
       <c r="D23">
         <v>22</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="H23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="I23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="K23">
         <v>22</v>
       </c>
       <c r="L23">
-        <f>ROUNDDOWN((L22+VLOOKUP(VLOOKUP($K23,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K23,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="M23">
-        <f>ROUNDDOWN((M22+VLOOKUP(VLOOKUP($K23,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K23,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="N23">
-        <f>ROUNDDOWN((N22+VLOOKUP(VLOOKUP($K23,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K23,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="O23">
-        <f>ROUNDDOWN((O22+VLOOKUP(VLOOKUP($K23,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K23,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="P23">
-        <f>ROUNDDOWN((P22+VLOOKUP(VLOOKUP($K23,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K23,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" t="str">
-        <f>D24&amp;","&amp;""""&amp;E24&amp;""""&amp;","&amp;""""&amp;F24&amp;""""&amp;","&amp;""""&amp;G24&amp;""""&amp;","&amp;""""&amp;H24&amp;""""&amp;","&amp;""""&amp;I24&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>23,"52","48","15","156","16"</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="H24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>156</v>
       </c>
       <c r="I24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="K24">
         <v>23</v>
       </c>
       <c r="L24">
-        <f>ROUNDDOWN((L23+VLOOKUP(VLOOKUP($K24,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K24,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="M24">
-        <f>ROUNDDOWN((M23+VLOOKUP(VLOOKUP($K24,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K24,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="N24">
-        <f>ROUNDDOWN((N23+VLOOKUP(VLOOKUP($K24,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K24,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="O24">
-        <f>ROUNDDOWN((O23+VLOOKUP(VLOOKUP($K24,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K24,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>156</v>
       </c>
       <c r="P24">
-        <f>ROUNDDOWN((P23+VLOOKUP(VLOOKUP($K24,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K24,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" t="str">
-        <f>D25&amp;","&amp;""""&amp;E25&amp;""""&amp;","&amp;""""&amp;F25&amp;""""&amp;","&amp;""""&amp;G25&amp;""""&amp;","&amp;""""&amp;H25&amp;""""&amp;","&amp;""""&amp;I25&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>24,"56","52","16","162","17"</v>
       </c>
       <c r="D25">
         <v>24</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="F25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="H25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>162</v>
       </c>
       <c r="I25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="K25">
         <v>24</v>
       </c>
       <c r="L25">
-        <f>ROUNDDOWN((L24+VLOOKUP(VLOOKUP($K25,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K25,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="M25">
-        <f>ROUNDDOWN((M24+VLOOKUP(VLOOKUP($K25,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K25,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="N25">
-        <f>ROUNDDOWN((N24+VLOOKUP(VLOOKUP($K25,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K25,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="O25">
-        <f>ROUNDDOWN((O24+VLOOKUP(VLOOKUP($K25,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K25,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>162</v>
       </c>
       <c r="P25">
-        <f>ROUNDDOWN((P24+VLOOKUP(VLOOKUP($K25,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K25,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" t="str">
-        <f>D26&amp;","&amp;""""&amp;E26&amp;""""&amp;","&amp;""""&amp;F26&amp;""""&amp;","&amp;""""&amp;G26&amp;""""&amp;","&amp;""""&amp;H26&amp;""""&amp;","&amp;""""&amp;I26&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>25,"60","56","17","168","18"</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="F26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="H26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>168</v>
       </c>
       <c r="I26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="K26">
         <v>25</v>
       </c>
       <c r="L26">
-        <f>ROUNDDOWN((L25+VLOOKUP(VLOOKUP($K26,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K26,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="M26">
-        <f>ROUNDDOWN((M25+VLOOKUP(VLOOKUP($K26,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K26,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="N26">
-        <f>ROUNDDOWN((N25+VLOOKUP(VLOOKUP($K26,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K26,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="O26">
-        <f>ROUNDDOWN((O25+VLOOKUP(VLOOKUP($K26,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K26,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>168</v>
       </c>
       <c r="P26">
-        <f>ROUNDDOWN((P25+VLOOKUP(VLOOKUP($K26,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K26,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A27" t="str">
-        <f>D27&amp;","&amp;""""&amp;E27&amp;""""&amp;","&amp;""""&amp;F27&amp;""""&amp;","&amp;""""&amp;G27&amp;""""&amp;","&amp;""""&amp;H27&amp;""""&amp;","&amp;""""&amp;I27&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>26,"65","60","19","174","20"</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="H27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>174</v>
       </c>
       <c r="I27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="K27">
         <v>26</v>
       </c>
       <c r="L27">
-        <f>ROUNDDOWN((L26+VLOOKUP(VLOOKUP($K27,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K27,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="M27">
-        <f>ROUNDDOWN((M26+VLOOKUP(VLOOKUP($K27,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K27,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="N27">
-        <f>ROUNDDOWN((N26+VLOOKUP(VLOOKUP($K27,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K27,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="O27">
-        <f>ROUNDDOWN((O26+VLOOKUP(VLOOKUP($K27,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K27,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>174</v>
       </c>
       <c r="P27">
-        <f>ROUNDDOWN((P26+VLOOKUP(VLOOKUP($K27,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K27,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A28" t="str">
-        <f>D28&amp;","&amp;""""&amp;E28&amp;""""&amp;","&amp;""""&amp;F28&amp;""""&amp;","&amp;""""&amp;G28&amp;""""&amp;","&amp;""""&amp;H28&amp;""""&amp;","&amp;""""&amp;I28&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>27,"70","65","21","180","22"</v>
       </c>
       <c r="D28">
         <v>27</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="F28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="H28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="I28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="K28">
         <v>27</v>
       </c>
       <c r="L28">
-        <f>ROUNDDOWN((L27+VLOOKUP(VLOOKUP($K28,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K28,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="M28">
-        <f>ROUNDDOWN((M27+VLOOKUP(VLOOKUP($K28,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K28,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>65</v>
       </c>
       <c r="N28">
-        <f>ROUNDDOWN((N27+VLOOKUP(VLOOKUP($K28,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K28,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="O28">
-        <f>ROUNDDOWN((O27+VLOOKUP(VLOOKUP($K28,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K28,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
       <c r="P28">
-        <f>ROUNDDOWN((P27+VLOOKUP(VLOOKUP($K28,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K28,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A29" t="str">
-        <f>D29&amp;","&amp;""""&amp;E29&amp;""""&amp;","&amp;""""&amp;F29&amp;""""&amp;","&amp;""""&amp;G29&amp;""""&amp;","&amp;""""&amp;H29&amp;""""&amp;","&amp;""""&amp;I29&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>28,"75","70","23","186","24"</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="H29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>186</v>
       </c>
       <c r="I29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="K29">
         <v>28</v>
       </c>
       <c r="L29">
-        <f>ROUNDDOWN((L28+VLOOKUP(VLOOKUP($K29,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K29,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="M29">
-        <f>ROUNDDOWN((M28+VLOOKUP(VLOOKUP($K29,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K29,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="N29">
-        <f>ROUNDDOWN((N28+VLOOKUP(VLOOKUP($K29,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K29,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="O29">
-        <f>ROUNDDOWN((O28+VLOOKUP(VLOOKUP($K29,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K29,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>186</v>
       </c>
       <c r="P29">
-        <f>ROUNDDOWN((P28+VLOOKUP(VLOOKUP($K29,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K29,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A30" t="str">
-        <f>D30&amp;","&amp;""""&amp;E30&amp;""""&amp;","&amp;""""&amp;F30&amp;""""&amp;","&amp;""""&amp;G30&amp;""""&amp;","&amp;""""&amp;H30&amp;""""&amp;","&amp;""""&amp;I30&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>29,"80","75","26","192","26"</v>
       </c>
       <c r="D30">
         <v>29</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="H30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>192</v>
       </c>
       <c r="I30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="K30">
         <v>29</v>
       </c>
       <c r="L30">
-        <f>ROUNDDOWN((L29+VLOOKUP(VLOOKUP($K30,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K30,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="M30">
-        <f>ROUNDDOWN((M29+VLOOKUP(VLOOKUP($K30,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K30,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
       <c r="N30">
-        <f>ROUNDDOWN((N29+VLOOKUP(VLOOKUP($K30,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K30,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="O30">
-        <f>ROUNDDOWN((O29+VLOOKUP(VLOOKUP($K30,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K30,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>192</v>
       </c>
       <c r="P30">
-        <f>ROUNDDOWN((P29+VLOOKUP(VLOOKUP($K30,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K30,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A31" t="str">
-        <f>D31&amp;","&amp;""""&amp;E31&amp;""""&amp;","&amp;""""&amp;F31&amp;""""&amp;","&amp;""""&amp;G31&amp;""""&amp;","&amp;""""&amp;H31&amp;""""&amp;","&amp;""""&amp;I31&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>30,"86","80","29","198","28"</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="G31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="H31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>198</v>
       </c>
       <c r="I31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="K31">
         <v>30</v>
       </c>
       <c r="L31">
-        <f>ROUNDDOWN((L30+VLOOKUP(VLOOKUP($K31,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K31,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
       <c r="M31">
-        <f>ROUNDDOWN((M30+VLOOKUP(VLOOKUP($K31,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K31,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="N31">
-        <f>ROUNDDOWN((N30+VLOOKUP(VLOOKUP($K31,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K31,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="O31">
-        <f>ROUNDDOWN((O30+VLOOKUP(VLOOKUP($K31,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K31,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>198</v>
       </c>
       <c r="P31">
-        <f>ROUNDDOWN((P30+VLOOKUP(VLOOKUP($K31,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K31,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A32" t="str">
-        <f>D32&amp;","&amp;""""&amp;E32&amp;""""&amp;","&amp;""""&amp;F32&amp;""""&amp;","&amp;""""&amp;G32&amp;""""&amp;","&amp;""""&amp;H32&amp;""""&amp;","&amp;""""&amp;I32&amp;""""</f>
+        <f t="shared" si="0"/>
         <v>31,"96","89","32","205","30"</v>
       </c>
       <c r="D32">
         <v>31</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="G32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="H32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>205</v>
       </c>
       <c r="I32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="K32">
         <v>31</v>
       </c>
       <c r="L32">
-        <f>ROUNDDOWN((L31+VLOOKUP(VLOOKUP($K32,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K32,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="M32">
-        <f>ROUNDDOWN((M31+VLOOKUP(VLOOKUP($K32,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K32,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>89</v>
       </c>
       <c r="N32">
-        <f>ROUNDDOWN((N31+VLOOKUP(VLOOKUP($K32,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K32,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="O32">
-        <f>ROUNDDOWN((O31+VLOOKUP(VLOOKUP($K32,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K32,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>205</v>
       </c>
       <c r="P32">
-        <f>ROUNDDOWN((P31+VLOOKUP(VLOOKUP($K32,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K32,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A33" t="str">
-        <f>D33&amp;","&amp;""""&amp;E33&amp;""""&amp;","&amp;""""&amp;F33&amp;""""&amp;","&amp;""""&amp;G33&amp;""""&amp;","&amp;""""&amp;H33&amp;""""&amp;","&amp;""""&amp;I33&amp;""""</f>
+        <f t="shared" ref="A33:A51" si="12">D33&amp;","&amp;""""&amp;E33&amp;""""&amp;","&amp;""""&amp;F33&amp;""""&amp;","&amp;""""&amp;G33&amp;""""&amp;","&amp;""""&amp;H33&amp;""""&amp;","&amp;""""&amp;I33&amp;""""</f>
         <v>32,"106","99","35","212","32"</v>
       </c>
       <c r="D33">
         <v>32</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="G33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="H33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>212</v>
       </c>
       <c r="I33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="K33">
         <v>32</v>
       </c>
       <c r="L33">
-        <f>ROUNDDOWN((L32+VLOOKUP(VLOOKUP($K33,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K33,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>106</v>
       </c>
       <c r="M33">
-        <f>ROUNDDOWN((M32+VLOOKUP(VLOOKUP($K33,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K33,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>99</v>
       </c>
       <c r="N33">
-        <f>ROUNDDOWN((N32+VLOOKUP(VLOOKUP($K33,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K33,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="O33">
-        <f>ROUNDDOWN((O32+VLOOKUP(VLOOKUP($K33,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K33,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>212</v>
       </c>
       <c r="P33">
-        <f>ROUNDDOWN((P32+VLOOKUP(VLOOKUP($K33,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K33,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A34" t="str">
-        <f>D34&amp;","&amp;""""&amp;E34&amp;""""&amp;","&amp;""""&amp;F34&amp;""""&amp;","&amp;""""&amp;G34&amp;""""&amp;","&amp;""""&amp;H34&amp;""""&amp;","&amp;""""&amp;I34&amp;""""</f>
+        <f t="shared" si="12"/>
         <v>33,"117","110","38","219","34"</v>
       </c>
       <c r="D34">
         <v>33</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="F34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="G34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="H34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>219</v>
       </c>
       <c r="I34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
       <c r="L34">
-        <f>ROUNDDOWN((L33+VLOOKUP(VLOOKUP($K34,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K34,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="M34">
-        <f>ROUNDDOWN((M33+VLOOKUP(VLOOKUP($K34,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K34,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="N34">
-        <f>ROUNDDOWN((N33+VLOOKUP(VLOOKUP($K34,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K34,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="O34">
-        <f>ROUNDDOWN((O33+VLOOKUP(VLOOKUP($K34,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K34,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="10"/>
         <v>219</v>
       </c>
       <c r="P34">
-        <f>ROUNDDOWN((P33+VLOOKUP(VLOOKUP($K34,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K34,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A35" t="str">
-        <f>D35&amp;","&amp;""""&amp;E35&amp;""""&amp;","&amp;""""&amp;F35&amp;""""&amp;","&amp;""""&amp;G35&amp;""""&amp;","&amp;""""&amp;H35&amp;""""&amp;","&amp;""""&amp;I35&amp;""""</f>
+        <f t="shared" si="12"/>
         <v>34,"129","122","42","226","36"</v>
       </c>
       <c r="D35">
         <v>34</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="G35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="H35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>226</v>
       </c>
       <c r="I35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="K35">
         <v>34</v>
       </c>
       <c r="L35">
-        <f>ROUNDDOWN((L34+VLOOKUP(VLOOKUP($K35,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K35,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" ref="L35:L51" si="13">ROUNDDOWN((L34+VLOOKUP(VLOOKUP($K35,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K35,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
         <v>129</v>
       </c>
       <c r="M35">
-        <f>ROUNDDOWN((M34+VLOOKUP(VLOOKUP($K35,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K35,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" ref="M35:M51" si="14">ROUNDDOWN((M34+VLOOKUP(VLOOKUP($K35,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K35,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
         <v>122</v>
       </c>
       <c r="N35">
-        <f>ROUNDDOWN((N34+VLOOKUP(VLOOKUP($K35,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K35,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" ref="N35:N51" si="15">ROUNDDOWN((N34+VLOOKUP(VLOOKUP($K35,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K35,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
         <v>42</v>
       </c>
       <c r="O35">
-        <f>ROUNDDOWN((O34+VLOOKUP(VLOOKUP($K35,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K35,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" ref="O35:O51" si="16">ROUNDDOWN((O34+VLOOKUP(VLOOKUP($K35,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K35,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
         <v>226</v>
       </c>
       <c r="P35">
-        <f>ROUNDDOWN((P34+VLOOKUP(VLOOKUP($K35,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K35,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" ref="P35:P51" si="17">ROUNDDOWN((P34+VLOOKUP(VLOOKUP($K35,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K35,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A36" t="str">
-        <f>D36&amp;","&amp;""""&amp;E36&amp;""""&amp;","&amp;""""&amp;F36&amp;""""&amp;","&amp;""""&amp;G36&amp;""""&amp;","&amp;""""&amp;H36&amp;""""&amp;","&amp;""""&amp;I36&amp;""""</f>
+        <f t="shared" si="12"/>
         <v>35,"142","135","46","233","38"</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="G36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="H36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>233</v>
       </c>
       <c r="I36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="K36">
         <v>35</v>
       </c>
       <c r="L36">
-        <f>ROUNDDOWN((L35+VLOOKUP(VLOOKUP($K36,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K36,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="13"/>
         <v>142</v>
       </c>
       <c r="M36">
-        <f>ROUNDDOWN((M35+VLOOKUP(VLOOKUP($K36,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K36,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="14"/>
         <v>135</v>
       </c>
       <c r="N36">
-        <f>ROUNDDOWN((N35+VLOOKUP(VLOOKUP($K36,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K36,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="15"/>
         <v>46</v>
       </c>
       <c r="O36">
-        <f>ROUNDDOWN((O35+VLOOKUP(VLOOKUP($K36,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K36,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="16"/>
         <v>233</v>
       </c>
       <c r="P36">
-        <f>ROUNDDOWN((P35+VLOOKUP(VLOOKUP($K36,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K36,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="17"/>
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A37" t="str">
-        <f>D37&amp;","&amp;""""&amp;E37&amp;""""&amp;","&amp;""""&amp;F37&amp;""""&amp;","&amp;""""&amp;G37&amp;""""&amp;","&amp;""""&amp;H37&amp;""""&amp;","&amp;""""&amp;I37&amp;""""</f>
+        <f t="shared" si="12"/>
         <v>36,"156","149","50","240","40"</v>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="F37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>149</v>
       </c>
       <c r="G37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="H37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="I37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="K37">
         <v>36</v>
       </c>
       <c r="L37">
-        <f>ROUNDDOWN((L36+VLOOKUP(VLOOKUP($K37,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K37,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="13"/>
         <v>156</v>
       </c>
       <c r="M37">
-        <f>ROUNDDOWN((M36+VLOOKUP(VLOOKUP($K37,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K37,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="14"/>
         <v>149</v>
       </c>
       <c r="N37">
-        <f>ROUNDDOWN((N36+VLOOKUP(VLOOKUP($K37,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K37,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="O37">
-        <f>ROUNDDOWN((O36+VLOOKUP(VLOOKUP($K37,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K37,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="16"/>
         <v>240</v>
       </c>
       <c r="P37">
-        <f>ROUNDDOWN((P36+VLOOKUP(VLOOKUP($K37,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K37,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A38" t="str">
-        <f>D38&amp;","&amp;""""&amp;E38&amp;""""&amp;","&amp;""""&amp;F38&amp;""""&amp;","&amp;""""&amp;G38&amp;""""&amp;","&amp;""""&amp;H38&amp;""""&amp;","&amp;""""&amp;I38&amp;""""</f>
+        <f t="shared" si="12"/>
         <v>37,"171","164","54","247","42"</v>
       </c>
       <c r="D38">
         <v>37</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="F38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>164</v>
       </c>
       <c r="G38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="H38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>247</v>
       </c>
       <c r="I38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="K38">
         <v>37</v>
       </c>
       <c r="L38">
-        <f>ROUNDDOWN((L37+VLOOKUP(VLOOKUP($K38,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K38,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="13"/>
         <v>171</v>
       </c>
       <c r="M38">
-        <f>ROUNDDOWN((M37+VLOOKUP(VLOOKUP($K38,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K38,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="14"/>
         <v>164</v>
       </c>
       <c r="N38">
-        <f>ROUNDDOWN((N37+VLOOKUP(VLOOKUP($K38,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K38,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="15"/>
         <v>54</v>
       </c>
       <c r="O38">
-        <f>ROUNDDOWN((O37+VLOOKUP(VLOOKUP($K38,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K38,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="16"/>
         <v>247</v>
       </c>
       <c r="P38">
-        <f>ROUNDDOWN((P37+VLOOKUP(VLOOKUP($K38,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K38,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="17"/>
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A39" t="str">
-        <f>D39&amp;","&amp;""""&amp;E39&amp;""""&amp;","&amp;""""&amp;F39&amp;""""&amp;","&amp;""""&amp;G39&amp;""""&amp;","&amp;""""&amp;H39&amp;""""&amp;","&amp;""""&amp;I39&amp;""""</f>
+        <f t="shared" si="12"/>
         <v>38,"187","180","58","255","44"</v>
       </c>
       <c r="D39">
         <v>38</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
       <c r="F39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="G39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="H39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>255</v>
       </c>
       <c r="I39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="K39">
         <v>38</v>
       </c>
       <c r="L39">
-        <f>ROUNDDOWN((L38+VLOOKUP(VLOOKUP($K39,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K39,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="13"/>
         <v>187</v>
       </c>
       <c r="M39">
-        <f>ROUNDDOWN((M38+VLOOKUP(VLOOKUP($K39,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K39,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="14"/>
         <v>180</v>
       </c>
       <c r="N39">
-        <f>ROUNDDOWN((N38+VLOOKUP(VLOOKUP($K39,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K39,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="15"/>
         <v>58</v>
       </c>
       <c r="O39">
-        <f>ROUNDDOWN((O38+VLOOKUP(VLOOKUP($K39,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K39,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="16"/>
         <v>255</v>
       </c>
       <c r="P39">
-        <f>ROUNDDOWN((P38+VLOOKUP(VLOOKUP($K39,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K39,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="17"/>
         <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A40" t="str">
-        <f>D40&amp;","&amp;""""&amp;E40&amp;""""&amp;","&amp;""""&amp;F40&amp;""""&amp;","&amp;""""&amp;G40&amp;""""&amp;","&amp;""""&amp;H40&amp;""""&amp;","&amp;""""&amp;I40&amp;""""</f>
+        <f t="shared" si="12"/>
         <v>39,"205","197","63","263","46"</v>
       </c>
       <c r="D40">
         <v>39</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>205</v>
       </c>
       <c r="F40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>197</v>
       </c>
       <c r="G40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="H40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>263</v>
       </c>
       <c r="I40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="K40">
         <v>39</v>
       </c>
       <c r="L40">
-        <f>ROUNDDOWN((L39+VLOOKUP(VLOOKUP($K40,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K40,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="13"/>
         <v>205</v>
       </c>
       <c r="M40">
-        <f>ROUNDDOWN((M39+VLOOKUP(VLOOKUP($K40,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K40,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="14"/>
         <v>197</v>
       </c>
       <c r="N40">
-        <f>ROUNDDOWN((N39+VLOOKUP(VLOOKUP($K40,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K40,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="15"/>
         <v>63</v>
       </c>
       <c r="O40">
-        <f>ROUNDDOWN((O39+VLOOKUP(VLOOKUP($K40,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K40,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="16"/>
         <v>263</v>
       </c>
       <c r="P40">
-        <f>ROUNDDOWN((P39+VLOOKUP(VLOOKUP($K40,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K40,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="17"/>
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A41" t="str">
-        <f>D41&amp;","&amp;""""&amp;E41&amp;""""&amp;","&amp;""""&amp;F41&amp;""""&amp;","&amp;""""&amp;G41&amp;""""&amp;","&amp;""""&amp;H41&amp;""""&amp;","&amp;""""&amp;I41&amp;""""</f>
+        <f t="shared" si="12"/>
         <v>40,"224","216","68","271","48"</v>
       </c>
       <c r="D41">
         <v>40</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>224</v>
       </c>
       <c r="F41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>216</v>
       </c>
       <c r="G41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="H41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>271</v>
       </c>
       <c r="I41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="K41">
         <v>40</v>
       </c>
       <c r="L41">
-        <f>ROUNDDOWN((L40+VLOOKUP(VLOOKUP($K41,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K41,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="13"/>
         <v>224</v>
       </c>
       <c r="M41">
-        <f>ROUNDDOWN((M40+VLOOKUP(VLOOKUP($K41,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K41,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="14"/>
         <v>216</v>
       </c>
       <c r="N41">
-        <f>ROUNDDOWN((N40+VLOOKUP(VLOOKUP($K41,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K41,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="O41">
-        <f>ROUNDDOWN((O40+VLOOKUP(VLOOKUP($K41,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K41,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="16"/>
         <v>271</v>
       </c>
       <c r="P41">
-        <f>ROUNDDOWN((P40+VLOOKUP(VLOOKUP($K41,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K41,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="17"/>
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A42" t="str">
-        <f>D42&amp;","&amp;""""&amp;E42&amp;""""&amp;","&amp;""""&amp;F42&amp;""""&amp;","&amp;""""&amp;G42&amp;""""&amp;","&amp;""""&amp;H42&amp;""""&amp;","&amp;""""&amp;I42&amp;""""</f>
+        <f t="shared" si="12"/>
         <v>41,"249","240","77","283","52"</v>
       </c>
       <c r="D42">
         <v>41</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>249</v>
       </c>
       <c r="F42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="G42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="H42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>283</v>
       </c>
       <c r="I42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
       <c r="K42">
         <v>41</v>
       </c>
       <c r="L42">
-        <f>ROUNDDOWN((L41+VLOOKUP(VLOOKUP($K42,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K42,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="13"/>
         <v>249</v>
       </c>
       <c r="M42">
-        <f>ROUNDDOWN((M41+VLOOKUP(VLOOKUP($K42,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K42,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="14"/>
         <v>240</v>
       </c>
       <c r="N42">
-        <f>ROUNDDOWN((N41+VLOOKUP(VLOOKUP($K42,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K42,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="15"/>
         <v>77</v>
       </c>
       <c r="O42">
-        <f>ROUNDDOWN((O41+VLOOKUP(VLOOKUP($K42,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K42,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="16"/>
         <v>283</v>
       </c>
       <c r="P42">
-        <f>ROUNDDOWN((P41+VLOOKUP(VLOOKUP($K42,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K42,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="17"/>
         <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A43" t="str">
-        <f>D43&amp;","&amp;""""&amp;E43&amp;""""&amp;","&amp;""""&amp;F43&amp;""""&amp;","&amp;""""&amp;G43&amp;""""&amp;","&amp;""""&amp;H43&amp;""""&amp;","&amp;""""&amp;I43&amp;""""</f>
+        <f t="shared" si="12"/>
         <v>42,"277","267","87","295","56"</v>
       </c>
       <c r="D43">
         <v>42</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>277</v>
       </c>
       <c r="F43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>267</v>
       </c>
       <c r="G43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="H43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>295</v>
       </c>
       <c r="I43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="K43">
         <v>42</v>
       </c>
       <c r="L43">
-        <f>ROUNDDOWN((L42+VLOOKUP(VLOOKUP($K43,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K43,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="13"/>
         <v>277</v>
       </c>
       <c r="M43">
-        <f>ROUNDDOWN((M42+VLOOKUP(VLOOKUP($K43,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K43,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="14"/>
         <v>267</v>
       </c>
       <c r="N43">
-        <f>ROUNDDOWN((N42+VLOOKUP(VLOOKUP($K43,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K43,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="15"/>
         <v>87</v>
       </c>
       <c r="O43">
-        <f>ROUNDDOWN((O42+VLOOKUP(VLOOKUP($K43,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K43,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="16"/>
         <v>295</v>
       </c>
       <c r="P43">
-        <f>ROUNDDOWN((P42+VLOOKUP(VLOOKUP($K43,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K43,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="17"/>
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A44" t="str">
-        <f>D44&amp;","&amp;""""&amp;E44&amp;""""&amp;","&amp;""""&amp;F44&amp;""""&amp;","&amp;""""&amp;G44&amp;""""&amp;","&amp;""""&amp;H44&amp;""""&amp;","&amp;""""&amp;I44&amp;""""</f>
+        <f t="shared" si="12"/>
         <v>43,"308","297","98","307","60"</v>
       </c>
       <c r="D44">
         <v>43</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>308</v>
       </c>
       <c r="F44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>297</v>
       </c>
       <c r="G44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="H44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>307</v>
       </c>
       <c r="I44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="K44">
         <v>43</v>
       </c>
       <c r="L44">
-        <f>ROUNDDOWN((L43+VLOOKUP(VLOOKUP($K44,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K44,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="13"/>
         <v>308</v>
       </c>
       <c r="M44">
-        <f>ROUNDDOWN((M43+VLOOKUP(VLOOKUP($K44,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K44,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="14"/>
         <v>297</v>
       </c>
       <c r="N44">
-        <f>ROUNDDOWN((N43+VLOOKUP(VLOOKUP($K44,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K44,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="15"/>
         <v>98</v>
       </c>
       <c r="O44">
-        <f>ROUNDDOWN((O43+VLOOKUP(VLOOKUP($K44,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K44,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="16"/>
         <v>307</v>
       </c>
       <c r="P44">
-        <f>ROUNDDOWN((P43+VLOOKUP(VLOOKUP($K44,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K44,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A45" t="str">
-        <f>D45&amp;","&amp;""""&amp;E45&amp;""""&amp;","&amp;""""&amp;F45&amp;""""&amp;","&amp;""""&amp;G45&amp;""""&amp;","&amp;""""&amp;H45&amp;""""&amp;","&amp;""""&amp;I45&amp;""""</f>
+        <f t="shared" si="12"/>
         <v>44,"342","330","110","320","64"</v>
       </c>
       <c r="D45">
         <v>44</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>342</v>
       </c>
       <c r="F45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>330</v>
       </c>
       <c r="G45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="H45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>320</v>
       </c>
       <c r="I45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="K45">
         <v>44</v>
       </c>
       <c r="L45">
-        <f>ROUNDDOWN((L44+VLOOKUP(VLOOKUP($K45,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K45,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="13"/>
         <v>342</v>
       </c>
       <c r="M45">
-        <f>ROUNDDOWN((M44+VLOOKUP(VLOOKUP($K45,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K45,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="14"/>
         <v>330</v>
       </c>
       <c r="N45">
-        <f>ROUNDDOWN((N44+VLOOKUP(VLOOKUP($K45,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K45,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="15"/>
         <v>110</v>
       </c>
       <c r="O45">
-        <f>ROUNDDOWN((O44+VLOOKUP(VLOOKUP($K45,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K45,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="16"/>
         <v>320</v>
       </c>
       <c r="P45">
-        <f>ROUNDDOWN((P44+VLOOKUP(VLOOKUP($K45,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K45,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="17"/>
         <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A46" t="str">
-        <f>D46&amp;","&amp;""""&amp;E46&amp;""""&amp;","&amp;""""&amp;F46&amp;""""&amp;","&amp;""""&amp;G46&amp;""""&amp;","&amp;""""&amp;H46&amp;""""&amp;","&amp;""""&amp;I46&amp;""""</f>
+        <f t="shared" si="12"/>
         <v>45,"379","366","123","333","69"</v>
       </c>
       <c r="D46">
         <v>45</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>379</v>
       </c>
       <c r="F46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>366</v>
       </c>
       <c r="G46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>123</v>
       </c>
       <c r="H46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>333</v>
       </c>
       <c r="I46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="K46">
         <v>45</v>
       </c>
       <c r="L46">
-        <f>ROUNDDOWN((L45+VLOOKUP(VLOOKUP($K46,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K46,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="13"/>
         <v>379</v>
       </c>
       <c r="M46">
-        <f>ROUNDDOWN((M45+VLOOKUP(VLOOKUP($K46,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K46,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="14"/>
         <v>366</v>
       </c>
       <c r="N46">
-        <f>ROUNDDOWN((N45+VLOOKUP(VLOOKUP($K46,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K46,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="15"/>
         <v>123</v>
       </c>
       <c r="O46">
-        <f>ROUNDDOWN((O45+VLOOKUP(VLOOKUP($K46,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K46,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="16"/>
         <v>333</v>
       </c>
       <c r="P46">
-        <f>ROUNDDOWN((P45+VLOOKUP(VLOOKUP($K46,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K46,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="17"/>
         <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A47" t="str">
-        <f>D47&amp;","&amp;""""&amp;E47&amp;""""&amp;","&amp;""""&amp;F47&amp;""""&amp;","&amp;""""&amp;G47&amp;""""&amp;","&amp;""""&amp;H47&amp;""""&amp;","&amp;""""&amp;I47&amp;""""</f>
+        <f t="shared" si="12"/>
         <v>46,"420","405","137","347","74"</v>
       </c>
       <c r="D47">
         <v>46</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>420</v>
       </c>
       <c r="F47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>405</v>
       </c>
       <c r="G47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>137</v>
       </c>
       <c r="H47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>347</v>
       </c>
       <c r="I47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
       <c r="K47">
         <v>46</v>
       </c>
       <c r="L47">
-        <f>ROUNDDOWN((L46+VLOOKUP(VLOOKUP($K47,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K47,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="13"/>
         <v>420</v>
       </c>
       <c r="M47">
-        <f>ROUNDDOWN((M46+VLOOKUP(VLOOKUP($K47,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K47,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="14"/>
         <v>405</v>
       </c>
       <c r="N47">
-        <f>ROUNDDOWN((N46+VLOOKUP(VLOOKUP($K47,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K47,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="15"/>
         <v>137</v>
       </c>
       <c r="O47">
-        <f>ROUNDDOWN((O46+VLOOKUP(VLOOKUP($K47,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K47,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="16"/>
         <v>347</v>
       </c>
       <c r="P47">
-        <f>ROUNDDOWN((P46+VLOOKUP(VLOOKUP($K47,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K47,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="17"/>
         <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A48" t="str">
-        <f>D48&amp;","&amp;""""&amp;E48&amp;""""&amp;","&amp;""""&amp;F48&amp;""""&amp;","&amp;""""&amp;G48&amp;""""&amp;","&amp;""""&amp;H48&amp;""""&amp;","&amp;""""&amp;I48&amp;""""</f>
+        <f t="shared" si="12"/>
         <v>47,"465","448","152","361","79"</v>
       </c>
       <c r="D48">
         <v>47</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>465</v>
       </c>
       <c r="F48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>448</v>
       </c>
       <c r="G48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>152</v>
       </c>
       <c r="H48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>361</v>
       </c>
       <c r="I48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
       <c r="K48">
         <v>47</v>
       </c>
       <c r="L48">
-        <f>ROUNDDOWN((L47+VLOOKUP(VLOOKUP($K48,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K48,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="13"/>
         <v>465</v>
       </c>
       <c r="M48">
-        <f>ROUNDDOWN((M47+VLOOKUP(VLOOKUP($K48,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K48,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="14"/>
         <v>448</v>
       </c>
       <c r="N48">
-        <f>ROUNDDOWN((N47+VLOOKUP(VLOOKUP($K48,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K48,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="15"/>
         <v>152</v>
       </c>
       <c r="O48">
-        <f>ROUNDDOWN((O47+VLOOKUP(VLOOKUP($K48,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K48,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="16"/>
         <v>361</v>
       </c>
       <c r="P48">
-        <f>ROUNDDOWN((P47+VLOOKUP(VLOOKUP($K48,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K48,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="17"/>
         <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A49" t="str">
-        <f>D49&amp;","&amp;""""&amp;E49&amp;""""&amp;","&amp;""""&amp;F49&amp;""""&amp;","&amp;""""&amp;G49&amp;""""&amp;","&amp;""""&amp;H49&amp;""""&amp;","&amp;""""&amp;I49&amp;""""</f>
+        <f t="shared" si="12"/>
         <v>48,"514","496","168","375","84"</v>
       </c>
       <c r="D49">
         <v>48</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>514</v>
       </c>
       <c r="F49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>496</v>
       </c>
       <c r="G49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>168</v>
       </c>
       <c r="H49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>375</v>
       </c>
       <c r="I49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
       <c r="K49">
         <v>48</v>
       </c>
       <c r="L49">
-        <f>ROUNDDOWN((L48+VLOOKUP(VLOOKUP($K49,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K49,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="13"/>
         <v>514</v>
       </c>
       <c r="M49">
-        <f>ROUNDDOWN((M48+VLOOKUP(VLOOKUP($K49,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K49,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="14"/>
         <v>496</v>
       </c>
       <c r="N49">
-        <f>ROUNDDOWN((N48+VLOOKUP(VLOOKUP($K49,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K49,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="15"/>
         <v>168</v>
       </c>
       <c r="O49">
-        <f>ROUNDDOWN((O48+VLOOKUP(VLOOKUP($K49,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K49,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="16"/>
         <v>375</v>
       </c>
       <c r="P49">
-        <f>ROUNDDOWN((P48+VLOOKUP(VLOOKUP($K49,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K49,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="17"/>
         <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A50" t="str">
-        <f>D50&amp;","&amp;""""&amp;E50&amp;""""&amp;","&amp;""""&amp;F50&amp;""""&amp;","&amp;""""&amp;G50&amp;""""&amp;","&amp;""""&amp;H50&amp;""""&amp;","&amp;""""&amp;I50&amp;""""</f>
+        <f t="shared" si="12"/>
         <v>49,"568","548","185","390","89"</v>
       </c>
       <c r="D50">
         <v>49</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>568</v>
       </c>
       <c r="F50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>548</v>
       </c>
       <c r="G50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>185</v>
       </c>
       <c r="H50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>390</v>
       </c>
       <c r="I50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="K50">
         <v>49</v>
       </c>
       <c r="L50">
-        <f>ROUNDDOWN((L49+VLOOKUP(VLOOKUP($K50,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K50,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="13"/>
         <v>568</v>
       </c>
       <c r="M50">
-        <f>ROUNDDOWN((M49+VLOOKUP(VLOOKUP($K50,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K50,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="14"/>
         <v>548</v>
       </c>
       <c r="N50">
-        <f>ROUNDDOWN((N49+VLOOKUP(VLOOKUP($K50,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K50,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="15"/>
         <v>185</v>
       </c>
       <c r="O50">
-        <f>ROUNDDOWN((O49+VLOOKUP(VLOOKUP($K50,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K50,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="16"/>
         <v>390</v>
       </c>
       <c r="P50">
-        <f>ROUNDDOWN((P49+VLOOKUP(VLOOKUP($K50,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K50,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="17"/>
         <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A51" t="str">
-        <f>D51&amp;","&amp;""""&amp;E51&amp;""""&amp;","&amp;""""&amp;F51&amp;""""&amp;","&amp;""""&amp;G51&amp;""""&amp;","&amp;""""&amp;H51&amp;""""&amp;","&amp;""""&amp;I51&amp;""""</f>
+        <f t="shared" si="12"/>
         <v>50,"628","606","204","405","94"</v>
       </c>
       <c r="D51">
         <v>50</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>628</v>
       </c>
       <c r="F51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>606</v>
       </c>
       <c r="G51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>204</v>
       </c>
       <c r="H51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>405</v>
       </c>
       <c r="I51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>94</v>
       </c>
       <c r="K51">
         <v>50</v>
       </c>
       <c r="L51">
-        <f>ROUNDDOWN((L50+VLOOKUP(VLOOKUP($K51,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K51,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" si="13"/>
         <v>628</v>
       </c>
       <c r="M51">
-        <f>ROUNDDOWN((M50+VLOOKUP(VLOOKUP($K51,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K51,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="14"/>
         <v>606</v>
       </c>
       <c r="N51">
-        <f>ROUNDDOWN((N50+VLOOKUP(VLOOKUP($K51,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K51,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="15"/>
         <v>204</v>
       </c>
       <c r="O51">
-        <f>ROUNDDOWN((O50+VLOOKUP(VLOOKUP($K51,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K51,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" si="16"/>
         <v>405</v>
       </c>
       <c r="P51">
-        <f>ROUNDDOWN((P50+VLOOKUP(VLOOKUP($K51,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K51,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" si="17"/>
         <v>94</v>
       </c>
     </row>
@@ -5342,7 +10184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0097B4B-5DBD-433D-AC90-CE7BBD16536B}">
   <dimension ref="B1:AH60"/>
   <sheetViews>

--- a/docs/간이 스탯 계산식.xlsx
+++ b/docs/간이 스탯 계산식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\molu\molu\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C50309-BA74-43B8-B352-3B8951F1917A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923A09F5-ED07-40DA-A1EB-648656584FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4860" yWindow="60" windowWidth="18180" windowHeight="12696" xr2:uid="{5147BE65-AD01-43B4-BCC8-E6E7C0348578}"/>
   </bookViews>
@@ -121,9 +121,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="180" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -170,7 +172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,6 +196,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,139 +894,139 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>35</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>38</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>47</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>54</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>60</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>66</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>73</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>80</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>87</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>95</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>103</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>112</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>121</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>131</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>147</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>164</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>183</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>203</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>225</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>249</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>275</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>304</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>335</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>369</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2081,7 +2089,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.000_ ">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -2112,124 +2120,124 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>26</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>35</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>38</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>46</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>54</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>58</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>63</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>68</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>77</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>87</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>98</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>110</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>123</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>137</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>152</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>168</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>185</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>204</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4130,8 +4138,8 @@
   <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4405,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>2</v>
@@ -4478,7 +4486,7 @@
         <v>2</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>2</v>
@@ -4551,7 +4559,7 @@
         <v>2</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>3</v>
@@ -4563,7 +4571,7 @@
     <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>6,"11","9","4","86","5"</v>
+        <v>6,"11","9","3","86","5"</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -4578,7 +4586,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -4601,7 +4609,7 @@
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <f t="shared" si="3"/>
@@ -4624,7 +4632,7 @@
         <v>2</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>3</v>
@@ -4636,7 +4644,7 @@
     <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>7,"12","10","5","88","6"</v>
+        <v>7,"12","10","3","88","6"</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -4651,7 +4659,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -4674,7 +4682,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O8">
         <f t="shared" si="3"/>
@@ -4697,7 +4705,7 @@
         <v>2</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>3</v>
@@ -4709,7 +4717,7 @@
     <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>8,"13","11","6","90","7"</v>
+        <v>8,"13","11","3","90","7"</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -4724,7 +4732,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -4747,7 +4755,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O9">
         <f t="shared" si="3"/>
@@ -4770,7 +4778,7 @@
         <v>3</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>4</v>
@@ -4782,7 +4790,7 @@
     <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>9,"14","12","7","92","8"</v>
+        <v>9,"14","12","3","92","8"</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -4797,7 +4805,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -4820,7 +4828,7 @@
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
@@ -4843,7 +4851,7 @@
         <v>3</v>
       </c>
       <c r="V10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>4</v>
@@ -4855,7 +4863,7 @@
     <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>10,"15","13","8","94","9"</v>
+        <v>10,"15","13","3","94","9"</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -4870,7 +4878,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -4893,7 +4901,7 @@
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
@@ -4916,7 +4924,7 @@
         <v>3</v>
       </c>
       <c r="V11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>4</v>
@@ -4928,7 +4936,7 @@
     <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>11,"17","15","9","96","10"</v>
+        <v>11,"17","15","3","96","10"</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -4943,7 +4951,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
@@ -4966,7 +4974,7 @@
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
@@ -4989,7 +4997,7 @@
         <v>3</v>
       </c>
       <c r="V12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W12">
         <v>5</v>
@@ -5001,7 +5009,7 @@
     <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>12,"19","17","10","98","11"</v>
+        <v>12,"19","17","3","98","11"</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -5016,7 +5024,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
@@ -5039,7 +5047,7 @@
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
@@ -5053,7 +5061,7 @@
     <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>13,"22","19","11","101","12"</v>
+        <v>13,"22","19","3","101","12"</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -5068,7 +5076,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
@@ -5091,7 +5099,7 @@
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
@@ -5120,7 +5128,7 @@
     <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>14,"25","22","12","104","13"</v>
+        <v>14,"25","22","3","104","13"</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -5135,7 +5143,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
@@ -5158,7 +5166,7 @@
       </c>
       <c r="N15">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
@@ -5181,7 +5189,7 @@
         <v>1.01</v>
       </c>
       <c r="V15">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>1</v>
@@ -5193,7 +5201,7 @@
     <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>15,"28","25","13","107","14"</v>
+        <v>15,"28","25","3","107","14"</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -5208,7 +5216,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
@@ -5231,7 +5239,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="O16">
         <f t="shared" si="3"/>
@@ -5254,7 +5262,7 @@
         <v>1.05</v>
       </c>
       <c r="V16">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>1.01</v>
@@ -5266,7 +5274,7 @@
     <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>16,"31","28","15","111","15"</v>
+        <v>16,"31","28","3","111","15"</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -5281,7 +5289,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
@@ -5304,7 +5312,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
@@ -5327,7 +5335,7 @@
         <v>1.05</v>
       </c>
       <c r="V17">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>1.02</v>
@@ -5339,7 +5347,7 @@
     <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>17,"34","31","17","115","16"</v>
+        <v>17,"34","31","3","115","16"</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -5354,7 +5362,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
@@ -5377,7 +5385,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
@@ -5400,7 +5408,7 @@
         <v>1.08</v>
       </c>
       <c r="V18">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>1.02</v>
@@ -5412,7 +5420,7 @@
     <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>18,"37","34","19","119","17"</v>
+        <v>18,"37","34","3","119","17"</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -5427,7 +5435,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
@@ -5450,7 +5458,7 @@
       </c>
       <c r="N19">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O19">
         <f t="shared" si="3"/>
@@ -5473,7 +5481,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="V19">
-        <v>1.0900000000000001</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>1.03</v>
@@ -5485,7 +5493,7 @@
     <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>19,"40","37","21","123","18"</v>
+        <v>19,"40","37","3","123","18"</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -5500,7 +5508,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
@@ -5523,7 +5531,7 @@
       </c>
       <c r="N20">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="O20">
         <f t="shared" si="3"/>
@@ -5537,7 +5545,7 @@
     <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>20,"44","40","23","127","19"</v>
+        <v>20,"44","40","3","127","19"</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -5552,7 +5560,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
@@ -5575,7 +5583,7 @@
       </c>
       <c r="N21">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="O21">
         <f t="shared" si="3"/>
@@ -5592,7 +5600,7 @@
     <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>21,"48","44","26","132","20"</v>
+        <v>21,"48","44","3","132","20"</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -5607,7 +5615,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
@@ -5630,7 +5638,7 @@
       </c>
       <c r="N22">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="O22">
         <f t="shared" si="3"/>
@@ -5644,7 +5652,7 @@
     <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>22,"52","48","29","137","21"</v>
+        <v>22,"52","48","3","137","21"</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -5659,7 +5667,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
@@ -5682,7 +5690,7 @@
       </c>
       <c r="N23">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="O23">
         <f t="shared" si="3"/>
@@ -5696,7 +5704,7 @@
     <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>23,"56","52","32","142","22"</v>
+        <v>23,"56","52","3","142","22"</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -5711,7 +5719,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
@@ -5734,7 +5742,7 @@
       </c>
       <c r="N24">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="O24">
         <f t="shared" si="3"/>
@@ -5748,7 +5756,7 @@
     <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>24,"60","56","35","147","23"</v>
+        <v>24,"60","56","3","147","23"</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -5763,7 +5771,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
@@ -5786,7 +5794,7 @@
       </c>
       <c r="N25">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="O25">
         <f t="shared" si="3"/>
@@ -5800,7 +5808,7 @@
     <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>25,"65","60","38","153","24"</v>
+        <v>25,"65","60","3","153","24"</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -5815,7 +5823,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
@@ -5838,7 +5846,7 @@
       </c>
       <c r="N26">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="O26">
         <f t="shared" si="3"/>
@@ -5852,7 +5860,7 @@
     <row r="27" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>26,"70","65","41","159","26"</v>
+        <v>26,"70","65","3","159","26"</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -5867,7 +5875,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
@@ -5890,7 +5898,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="O27">
         <f t="shared" si="3"/>
@@ -5904,7 +5912,7 @@
     <row r="28" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>27,"75","70","44","165","28"</v>
+        <v>27,"75","70","3","165","28"</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -5919,7 +5927,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
@@ -5942,7 +5950,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="O28">
         <f t="shared" si="3"/>
@@ -5956,7 +5964,7 @@
     <row r="29" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>28,"80","75","47","171","30"</v>
+        <v>28,"80","75","3","171","30"</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -5971,7 +5979,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
@@ -5994,7 +6002,7 @@
       </c>
       <c r="N29">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="O29">
         <f t="shared" si="3"/>
@@ -6008,7 +6016,7 @@
     <row r="30" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>29,"86","80","50","177","32"</v>
+        <v>29,"86","80","3","177","32"</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -6023,7 +6031,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
@@ -6046,7 +6054,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="O30">
         <f t="shared" si="3"/>
@@ -6060,7 +6068,7 @@
     <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>30,"92","86","54","183","34"</v>
+        <v>30,"92","86","3","183","34"</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -6075,7 +6083,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
@@ -6098,7 +6106,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="O31">
         <f t="shared" si="3"/>
@@ -6112,7 +6120,7 @@
     <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>31,"102","96","60","190","37"</v>
+        <v>31,"102","96","3","190","37"</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -6127,7 +6135,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
@@ -6150,7 +6158,7 @@
       </c>
       <c r="N32">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="O32">
         <f t="shared" si="3"/>
@@ -6164,7 +6172,7 @@
     <row r="33" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>32,"113","106","66","197","40"</v>
+        <v>32,"113","106","3","197","40"</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -6179,7 +6187,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
@@ -6202,7 +6210,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="O33">
         <f t="shared" si="3"/>
@@ -6216,7 +6224,7 @@
     <row r="34" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>33,"125","117","73","205","43"</v>
+        <v>33,"125","117","3","205","43"</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -6231,7 +6239,7 @@
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
@@ -6254,7 +6262,7 @@
       </c>
       <c r="N34">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="O34">
         <f t="shared" si="3"/>
@@ -6268,7 +6276,7 @@
     <row r="35" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>34,"138","129","80","213","46"</v>
+        <v>34,"138","129","3","213","46"</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -6283,7 +6291,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="H35">
         <f t="shared" si="2"/>
@@ -6306,7 +6314,7 @@
       </c>
       <c r="N35">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="O35">
         <f t="shared" si="4"/>
@@ -6320,7 +6328,7 @@
     <row r="36" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>35,"152","142","87","221","49"</v>
+        <v>35,"152","142","3","221","49"</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -6335,7 +6343,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
@@ -6358,7 +6366,7 @@
       </c>
       <c r="N36">
         <f t="shared" si="4"/>
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="O36">
         <f t="shared" si="4"/>
@@ -6372,7 +6380,7 @@
     <row r="37" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>36,"167","156","95","229","52"</v>
+        <v>36,"167","156","3","229","52"</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -6387,7 +6395,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="H37">
         <f t="shared" si="2"/>
@@ -6410,7 +6418,7 @@
       </c>
       <c r="N37">
         <f t="shared" si="4"/>
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="O37">
         <f t="shared" si="4"/>
@@ -6424,7 +6432,7 @@
     <row r="38" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>37,"183","171","103","237","55"</v>
+        <v>37,"183","171","3","237","55"</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -6439,7 +6447,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="H38">
         <f t="shared" si="2"/>
@@ -6462,7 +6470,7 @@
       </c>
       <c r="N38">
         <f t="shared" si="4"/>
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="O38">
         <f t="shared" si="4"/>
@@ -6476,7 +6484,7 @@
     <row r="39" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>38,"200","187","112","245","58"</v>
+        <v>38,"200","187","3","245","58"</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -6491,7 +6499,7 @@
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="H39">
         <f t="shared" si="2"/>
@@ -6514,7 +6522,7 @@
       </c>
       <c r="N39">
         <f t="shared" si="4"/>
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="O39">
         <f t="shared" si="4"/>
@@ -6528,7 +6536,7 @@
     <row r="40" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>39,"219","205","121","253","61"</v>
+        <v>39,"219","205","3","253","61"</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -6543,7 +6551,7 @@
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="H40">
         <f t="shared" si="2"/>
@@ -6566,7 +6574,7 @@
       </c>
       <c r="N40">
         <f t="shared" si="4"/>
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="O40">
         <f t="shared" si="4"/>
@@ -6580,7 +6588,7 @@
     <row r="41" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>40,"239","224","131","262","64"</v>
+        <v>40,"239","224","3","262","64"</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -6595,7 +6603,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="H41">
         <f t="shared" si="2"/>
@@ -6618,7 +6626,7 @@
       </c>
       <c r="N41">
         <f t="shared" si="4"/>
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="O41">
         <f t="shared" si="4"/>
@@ -6632,7 +6640,7 @@
     <row r="42" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>41,"266","249","147","273","69"</v>
+        <v>41,"266","249","3","273","69"</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -6647,7 +6655,7 @@
       </c>
       <c r="G42">
         <f t="shared" si="2"/>
-        <v>147</v>
+        <v>3</v>
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
@@ -6670,7 +6678,7 @@
       </c>
       <c r="N42">
         <f t="shared" si="4"/>
-        <v>147</v>
+        <v>3</v>
       </c>
       <c r="O42">
         <f t="shared" si="4"/>
@@ -6684,7 +6692,7 @@
     <row r="43" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>42,"295","277","164","285","74"</v>
+        <v>42,"295","277","3","285","74"</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -6699,7 +6707,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
-        <v>164</v>
+        <v>3</v>
       </c>
       <c r="H43">
         <f t="shared" si="2"/>
@@ -6722,7 +6730,7 @@
       </c>
       <c r="N43">
         <f t="shared" si="4"/>
-        <v>164</v>
+        <v>3</v>
       </c>
       <c r="O43">
         <f t="shared" si="4"/>
@@ -6736,7 +6744,7 @@
     <row r="44" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>43,"327","308","183","297","80"</v>
+        <v>43,"327","308","3","297","80"</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -6751,7 +6759,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>3</v>
       </c>
       <c r="H44">
         <f t="shared" si="2"/>
@@ -6774,7 +6782,7 @@
       </c>
       <c r="N44">
         <f t="shared" si="4"/>
-        <v>183</v>
+        <v>3</v>
       </c>
       <c r="O44">
         <f t="shared" si="4"/>
@@ -6788,7 +6796,7 @@
     <row r="45" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>44,"363","342","203","310","86"</v>
+        <v>44,"363","342","3","310","86"</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -6803,7 +6811,7 @@
       </c>
       <c r="G45">
         <f t="shared" si="2"/>
-        <v>203</v>
+        <v>3</v>
       </c>
       <c r="H45">
         <f t="shared" si="2"/>
@@ -6826,7 +6834,7 @@
       </c>
       <c r="N45">
         <f t="shared" si="4"/>
-        <v>203</v>
+        <v>3</v>
       </c>
       <c r="O45">
         <f t="shared" si="4"/>
@@ -6840,7 +6848,7 @@
     <row r="46" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>45,"402","379","225","323","92"</v>
+        <v>45,"402","379","3","323","92"</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -6855,7 +6863,7 @@
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="H46">
         <f t="shared" si="2"/>
@@ -6878,7 +6886,7 @@
       </c>
       <c r="N46">
         <f t="shared" si="4"/>
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="O46">
         <f t="shared" si="4"/>
@@ -6892,7 +6900,7 @@
     <row r="47" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>46,"445","420","249","337","98"</v>
+        <v>46,"445","420","3","337","98"</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -6907,7 +6915,7 @@
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
-        <v>249</v>
+        <v>3</v>
       </c>
       <c r="H47">
         <f t="shared" si="2"/>
@@ -6930,7 +6938,7 @@
       </c>
       <c r="N47">
         <f t="shared" si="4"/>
-        <v>249</v>
+        <v>3</v>
       </c>
       <c r="O47">
         <f t="shared" si="4"/>
@@ -6944,7 +6952,7 @@
     <row r="48" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>47,"492","465","275","352","105"</v>
+        <v>47,"492","465","3","352","105"</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -6959,7 +6967,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
-        <v>275</v>
+        <v>3</v>
       </c>
       <c r="H48">
         <f t="shared" si="2"/>
@@ -6982,7 +6990,7 @@
       </c>
       <c r="N48">
         <f t="shared" si="4"/>
-        <v>275</v>
+        <v>3</v>
       </c>
       <c r="O48">
         <f t="shared" si="4"/>
@@ -6996,7 +7004,7 @@
     <row r="49" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>48,"544","514","304","367","112"</v>
+        <v>48,"544","514","3","367","112"</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -7011,7 +7019,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
-        <v>304</v>
+        <v>3</v>
       </c>
       <c r="H49">
         <f t="shared" si="2"/>
@@ -7034,7 +7042,7 @@
       </c>
       <c r="N49">
         <f t="shared" si="4"/>
-        <v>304</v>
+        <v>3</v>
       </c>
       <c r="O49">
         <f t="shared" si="4"/>
@@ -7048,7 +7056,7 @@
     <row r="50" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>49,"601","568","335","383","119"</v>
+        <v>49,"601","568","3","383","119"</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -7063,7 +7071,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
-        <v>335</v>
+        <v>3</v>
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
@@ -7086,7 +7094,7 @@
       </c>
       <c r="N50">
         <f t="shared" si="4"/>
-        <v>335</v>
+        <v>3</v>
       </c>
       <c r="O50">
         <f t="shared" si="4"/>
@@ -7100,7 +7108,7 @@
     <row r="51" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>50,"664","628","369","399","126"</v>
+        <v>50,"664","628","3","399","126"</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -7115,7 +7123,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
-        <v>369</v>
+        <v>3</v>
       </c>
       <c r="H51">
         <f t="shared" si="2"/>
@@ -7138,7 +7146,7 @@
       </c>
       <c r="N51">
         <f t="shared" si="4"/>
-        <v>369</v>
+        <v>3</v>
       </c>
       <c r="O51">
         <f t="shared" si="4"/>
@@ -7161,8 +7169,8 @@
   <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q31" sqref="Q31"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7172,9 +7180,10 @@
     <col min="3" max="3" width="3.69921875" customWidth="1"/>
     <col min="5" max="5" width="4.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.8984375" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.296875" customWidth="1"/>
     <col min="9" max="9" width="8.59765625" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.4">
@@ -7191,7 +7200,7 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H1" t="s">
@@ -7209,7 +7218,7 @@
       <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="O1" t="s">
@@ -7250,7 +7259,7 @@
         <f t="shared" ref="F2:I2" si="1">M2</f>
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -7271,7 +7280,7 @@
       <c r="M2">
         <v>2</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="8">
         <v>2</v>
       </c>
       <c r="O2">
@@ -7312,7 +7321,7 @@
         <f t="shared" ref="F3:F51" si="3">M3</f>
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="9">
         <f t="shared" ref="G3:G51" si="4">N3</f>
         <v>2</v>
       </c>
@@ -7332,19 +7341,19 @@
         <v>5</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M34" si="8">ROUNDDOWN((M2+VLOOKUP(VLOOKUP($K3,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K3,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" ref="M3:N34" si="8">ROUNDDOWN((M2+VLOOKUP(VLOOKUP($K3,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K3,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
         <v>3</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N34" si="9">ROUNDDOWN((N2+VLOOKUP(VLOOKUP($K3,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K3,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O34" si="10">ROUNDDOWN((O2+VLOOKUP(VLOOKUP($K3,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K3,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" ref="O3:O34" si="9">ROUNDDOWN((O2+VLOOKUP(VLOOKUP($K3,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K3,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
         <v>100</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P34" si="11">ROUNDDOWN((P2+VLOOKUP(VLOOKUP($K3,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K3,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" ref="P3:P34" si="10">ROUNDDOWN((P2+VLOOKUP(VLOOKUP($K3,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K3,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
         <v>3</v>
       </c>
       <c r="R3">
@@ -7385,7 +7394,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -7405,19 +7414,19 @@
         <v>6</v>
       </c>
       <c r="M4">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="M4:M51" si="11">ROUNDDOWN((M3+VLOOKUP(VLOOKUP($K4,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K4,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="N4">
+        <f t="shared" ref="N4:N51" si="12">ROUNDDOWN((N3+VLOOKUP(VLOOKUP($K4,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K4,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="O4">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
         <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="R4">
@@ -7458,7 +7467,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -7478,19 +7487,19 @@
         <v>7</v>
       </c>
       <c r="M5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="N5">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="R5">
@@ -7506,7 +7515,7 @@
         <v>2</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>2</v>
@@ -7531,7 +7540,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -7551,19 +7560,19 @@
         <v>8</v>
       </c>
       <c r="M6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="N6">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="R6">
@@ -7579,7 +7588,7 @@
         <v>2</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>2</v>
@@ -7604,7 +7613,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -7624,19 +7633,19 @@
         <v>9</v>
       </c>
       <c r="M7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="N7">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="O7">
+        <v>102</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="10"/>
-        <v>102</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="R7">
@@ -7652,7 +7661,7 @@
         <v>2</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>3</v>
@@ -7677,7 +7686,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -7697,19 +7706,19 @@
         <v>10</v>
       </c>
       <c r="M8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="N8">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="O8">
+        <v>104</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="10"/>
-        <v>104</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="R8">
@@ -7725,7 +7734,7 @@
         <v>2</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>3</v>
@@ -7750,7 +7759,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -7770,19 +7779,19 @@
         <v>11</v>
       </c>
       <c r="M9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="N9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="O9">
+        <v>106</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="10"/>
-        <v>106</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="R9">
@@ -7798,7 +7807,7 @@
         <v>3</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>3</v>
@@ -7823,7 +7832,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -7843,19 +7852,19 @@
         <v>12</v>
       </c>
       <c r="M10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="N10">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="O10">
+        <v>108</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="10"/>
-        <v>108</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="R10">
@@ -7871,7 +7880,7 @@
         <v>3</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>3</v>
@@ -7896,7 +7905,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -7916,19 +7925,19 @@
         <v>13</v>
       </c>
       <c r="M11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="N11">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="O11">
+        <v>110</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="10"/>
-        <v>110</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="R11">
@@ -7944,7 +7953,7 @@
         <v>3</v>
       </c>
       <c r="V11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>4</v>
@@ -7956,7 +7965,7 @@
     <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>11,"15","13","3","113","4"</v>
+        <v>11,"15","13","2","113","4"</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -7969,9 +7978,9 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
-        <v>3</v>
+      <c r="G12" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H12">
         <f t="shared" si="5"/>
@@ -7989,19 +7998,19 @@
         <v>15</v>
       </c>
       <c r="M12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="N12">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="O12">
+        <v>113</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="10"/>
-        <v>113</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="R12">
@@ -8017,7 +8026,7 @@
         <v>3</v>
       </c>
       <c r="V12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W12">
         <v>4</v>
@@ -8029,7 +8038,7 @@
     <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>12,"17","15","4","116","5"</v>
+        <v>12,"17","15","2","116","5"</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -8042,9 +8051,9 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="4"/>
-        <v>4</v>
+      <c r="G13" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
@@ -8062,26 +8071,26 @@
         <v>17</v>
       </c>
       <c r="M13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="N13">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="O13">
+        <v>116</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="10"/>
-        <v>116</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>13,"19","17","5","119","6"</v>
+        <v>13,"19","17","2","119","6"</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -8094,9 +8103,9 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="4"/>
-        <v>5</v>
+      <c r="G14" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H14">
         <f t="shared" si="5"/>
@@ -8114,19 +8123,19 @@
         <v>19</v>
       </c>
       <c r="M14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="N14">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="O14">
+        <v>119</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="10"/>
-        <v>119</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="T14">
@@ -8148,7 +8157,7 @@
     <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>14,"22","19","6","122","7"</v>
+        <v>14,"22","19","2","122","7"</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -8161,9 +8170,9 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="4"/>
-        <v>6</v>
+      <c r="G15" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
@@ -8181,19 +8190,19 @@
         <v>22</v>
       </c>
       <c r="M15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="N15">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="O15">
+        <v>122</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="10"/>
-        <v>122</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="R15">
@@ -8221,7 +8230,7 @@
     <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>15,"25","22","7","125","8"</v>
+        <v>15,"25","22","2","125","8"</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -8234,9 +8243,9 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
-        <v>7</v>
+      <c r="G16" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H16">
         <f t="shared" si="5"/>
@@ -8254,19 +8263,19 @@
         <v>25</v>
       </c>
       <c r="M16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="N16">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="O16">
+        <v>125</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="10"/>
-        <v>125</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="R16">
@@ -8282,7 +8291,7 @@
         <v>1.05</v>
       </c>
       <c r="V16">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>1.01</v>
@@ -8294,7 +8303,7 @@
     <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>16,"28","25","8","128","9"</v>
+        <v>16,"28","25","2","128","9"</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -8307,9 +8316,9 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
-        <v>8</v>
+      <c r="G17" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H17">
         <f t="shared" si="5"/>
@@ -8327,19 +8336,19 @@
         <v>28</v>
       </c>
       <c r="M17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="N17">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="O17">
+        <v>128</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="10"/>
-        <v>128</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="R17">
@@ -8355,7 +8364,7 @@
         <v>1.05</v>
       </c>
       <c r="V17">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>1.02</v>
@@ -8367,7 +8376,7 @@
     <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>17,"31","28","9","131","10"</v>
+        <v>17,"31","28","2","131","10"</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -8380,9 +8389,9 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>9</v>
+      <c r="G18" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H18">
         <f t="shared" si="5"/>
@@ -8400,19 +8409,19 @@
         <v>31</v>
       </c>
       <c r="M18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="N18">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="O18">
+        <v>131</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="10"/>
-        <v>131</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="R18">
@@ -8428,7 +8437,7 @@
         <v>1.08</v>
       </c>
       <c r="V18">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>1.02</v>
@@ -8440,7 +8449,7 @@
     <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>18,"34","31","10","134","11"</v>
+        <v>18,"34","31","2","134","11"</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -8453,9 +8462,9 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="4"/>
-        <v>10</v>
+      <c r="G19" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H19">
         <f t="shared" si="5"/>
@@ -8473,19 +8482,19 @@
         <v>34</v>
       </c>
       <c r="M19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="N19">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="O19">
+        <v>134</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="10"/>
-        <v>134</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="R19">
@@ -8501,7 +8510,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="V19">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>1.03</v>
@@ -8513,7 +8522,7 @@
     <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>19,"37","34","11","137","12"</v>
+        <v>19,"37","34","2","137","12"</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -8526,9 +8535,9 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="4"/>
-        <v>11</v>
+      <c r="G20" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
@@ -8546,26 +8555,26 @@
         <v>37</v>
       </c>
       <c r="M20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
       <c r="N20">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="O20">
+        <v>137</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="10"/>
-        <v>137</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>20,"40","37","12","140","13"</v>
+        <v>20,"40","37","2","140","13"</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -8578,9 +8587,9 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="4"/>
-        <v>12</v>
+      <c r="G21" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H21">
         <f t="shared" si="5"/>
@@ -8598,19 +8607,19 @@
         <v>40</v>
       </c>
       <c r="M21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
       <c r="N21">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="O21">
+        <v>140</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="10"/>
-        <v>140</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="V21" t="s">
@@ -8620,7 +8629,7 @@
     <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>21,"44","40","13","145","14"</v>
+        <v>21,"44","40","2","145","14"</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -8633,9 +8642,9 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="4"/>
-        <v>13</v>
+      <c r="G22" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H22">
         <f t="shared" si="5"/>
@@ -8653,26 +8662,26 @@
         <v>44</v>
       </c>
       <c r="M22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="N22">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="O22">
+        <v>145</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="10"/>
-        <v>145</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>22,"48","44","14","150","15"</v>
+        <v>22,"48","44","2","150","15"</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -8685,9 +8694,9 @@
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="4"/>
-        <v>14</v>
+      <c r="G23" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H23">
         <f t="shared" si="5"/>
@@ -8705,26 +8714,26 @@
         <v>48</v>
       </c>
       <c r="M23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>44</v>
       </c>
       <c r="N23">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="O23">
+        <v>150</v>
+      </c>
+      <c r="P23">
         <f t="shared" si="10"/>
-        <v>150</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>23,"52","48","15","156","16"</v>
+        <v>23,"52","48","2","156","16"</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -8737,9 +8746,9 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="4"/>
-        <v>15</v>
+      <c r="G24" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H24">
         <f t="shared" si="5"/>
@@ -8757,26 +8766,26 @@
         <v>52</v>
       </c>
       <c r="M24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
       <c r="N24">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="O24">
+        <v>156</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="10"/>
-        <v>156</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="11"/>
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>24,"56","52","16","162","17"</v>
+        <v>24,"56","52","2","162","17"</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -8789,9 +8798,9 @@
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="4"/>
-        <v>16</v>
+      <c r="G25" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H25">
         <f t="shared" si="5"/>
@@ -8809,26 +8818,26 @@
         <v>56</v>
       </c>
       <c r="M25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>52</v>
       </c>
       <c r="N25">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="O25">
+        <v>162</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="10"/>
-        <v>162</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="11"/>
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>25,"60","56","17","168","18"</v>
+        <v>25,"60","56","2","168","18"</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -8841,9 +8850,9 @@
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="4"/>
-        <v>17</v>
+      <c r="G26" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H26">
         <f t="shared" si="5"/>
@@ -8861,26 +8870,26 @@
         <v>60</v>
       </c>
       <c r="M26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="N26">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="O26">
+        <v>168</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="10"/>
-        <v>168</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="11"/>
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>26,"65","60","19","174","20"</v>
+        <v>26,"65","60","2","174","20"</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -8893,9 +8902,9 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="4"/>
-        <v>19</v>
+      <c r="G27" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H27">
         <f t="shared" si="5"/>
@@ -8913,26 +8922,26 @@
         <v>65</v>
       </c>
       <c r="M27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="N27">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="9"/>
-        <v>19</v>
-      </c>
-      <c r="O27">
+        <v>174</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="10"/>
-        <v>174</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="11"/>
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>27,"70","65","21","180","22"</v>
+        <v>27,"70","65","2","180","22"</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -8945,9 +8954,9 @@
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="4"/>
-        <v>21</v>
+      <c r="G28" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H28">
         <f t="shared" si="5"/>
@@ -8965,26 +8974,26 @@
         <v>70</v>
       </c>
       <c r="M28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>65</v>
       </c>
       <c r="N28">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="O28">
+        <v>180</v>
+      </c>
+      <c r="P28">
         <f t="shared" si="10"/>
-        <v>180</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="11"/>
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>28,"75","70","23","186","24"</v>
+        <v>28,"75","70","2","186","24"</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -8997,9 +9006,9 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="4"/>
-        <v>23</v>
+      <c r="G29" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H29">
         <f t="shared" si="5"/>
@@ -9017,26 +9026,26 @@
         <v>75</v>
       </c>
       <c r="M29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
       <c r="N29">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="9"/>
-        <v>23</v>
-      </c>
-      <c r="O29">
+        <v>186</v>
+      </c>
+      <c r="P29">
         <f t="shared" si="10"/>
-        <v>186</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="11"/>
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>29,"80","75","26","192","26"</v>
+        <v>29,"80","75","2","192","26"</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -9049,9 +9058,9 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="4"/>
-        <v>26</v>
+      <c r="G30" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H30">
         <f t="shared" si="5"/>
@@ -9069,26 +9078,26 @@
         <v>80</v>
       </c>
       <c r="M30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="N30">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O30">
         <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="O30">
+        <v>192</v>
+      </c>
+      <c r="P30">
         <f t="shared" si="10"/>
-        <v>192</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="11"/>
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>30,"86","80","29","198","28"</v>
+        <v>30,"86","80","2","198","28"</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -9101,9 +9110,9 @@
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="4"/>
-        <v>29</v>
+      <c r="G31" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H31">
         <f t="shared" si="5"/>
@@ -9121,26 +9130,26 @@
         <v>86</v>
       </c>
       <c r="M31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="N31">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O31">
         <f t="shared" si="9"/>
-        <v>29</v>
-      </c>
-      <c r="O31">
+        <v>198</v>
+      </c>
+      <c r="P31">
         <f t="shared" si="10"/>
-        <v>198</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="11"/>
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>31,"96","89","32","205","30"</v>
+        <v>31,"96","89","2","205","30"</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -9153,9 +9162,9 @@
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="4"/>
-        <v>32</v>
+      <c r="G32" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H32">
         <f t="shared" si="5"/>
@@ -9173,26 +9182,26 @@
         <v>96</v>
       </c>
       <c r="M32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>89</v>
       </c>
       <c r="N32">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O32">
         <f t="shared" si="9"/>
-        <v>32</v>
-      </c>
-      <c r="O32">
+        <v>205</v>
+      </c>
+      <c r="P32">
         <f t="shared" si="10"/>
-        <v>205</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="11"/>
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A33" t="str">
-        <f t="shared" ref="A33:A51" si="12">D33&amp;","&amp;""""&amp;E33&amp;""""&amp;","&amp;""""&amp;F33&amp;""""&amp;","&amp;""""&amp;G33&amp;""""&amp;","&amp;""""&amp;H33&amp;""""&amp;","&amp;""""&amp;I33&amp;""""</f>
-        <v>32,"106","99","35","212","32"</v>
+        <f t="shared" ref="A33:A51" si="13">D33&amp;","&amp;""""&amp;E33&amp;""""&amp;","&amp;""""&amp;F33&amp;""""&amp;","&amp;""""&amp;G33&amp;""""&amp;","&amp;""""&amp;H33&amp;""""&amp;","&amp;""""&amp;I33&amp;""""</f>
+        <v>32,"106","99","2","212","32"</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -9205,9 +9214,9 @@
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="4"/>
-        <v>35</v>
+      <c r="G33" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H33">
         <f t="shared" si="5"/>
@@ -9225,26 +9234,26 @@
         <v>106</v>
       </c>
       <c r="M33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>99</v>
       </c>
       <c r="N33">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O33">
         <f t="shared" si="9"/>
-        <v>35</v>
-      </c>
-      <c r="O33">
+        <v>212</v>
+      </c>
+      <c r="P33">
         <f t="shared" si="10"/>
-        <v>212</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="11"/>
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A34" t="str">
-        <f t="shared" si="12"/>
-        <v>33,"117","110","38","219","34"</v>
+        <f t="shared" si="13"/>
+        <v>33,"117","110","2","219","34"</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -9257,9 +9266,9 @@
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="4"/>
-        <v>38</v>
+      <c r="G34" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H34">
         <f t="shared" si="5"/>
@@ -9277,26 +9286,26 @@
         <v>117</v>
       </c>
       <c r="M34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>110</v>
       </c>
       <c r="N34">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O34">
         <f t="shared" si="9"/>
-        <v>38</v>
-      </c>
-      <c r="O34">
+        <v>219</v>
+      </c>
+      <c r="P34">
         <f t="shared" si="10"/>
-        <v>219</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="11"/>
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A35" t="str">
-        <f t="shared" si="12"/>
-        <v>34,"129","122","42","226","36"</v>
+        <f t="shared" si="13"/>
+        <v>34,"129","122","2","226","36"</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -9309,9 +9318,9 @@
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="4"/>
-        <v>42</v>
+      <c r="G35" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H35">
         <f t="shared" si="5"/>
@@ -9325,30 +9334,30 @@
         <v>34</v>
       </c>
       <c r="L35">
-        <f t="shared" ref="L35:L51" si="13">ROUNDDOWN((L34+VLOOKUP(VLOOKUP($K35,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K35,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
+        <f t="shared" ref="L35:L51" si="14">ROUNDDOWN((L34+VLOOKUP(VLOOKUP($K35,$R$3:$S$12,2,TRUE),$S$3:$X$12,T$2,FALSE))*VLOOKUP(VLOOKUP($K35,$R$15:$S$19,2,TRUE),$S$15:$X$19,T$14,FALSE),0)</f>
         <v>129</v>
       </c>
       <c r="M35">
-        <f t="shared" ref="M35:M51" si="14">ROUNDDOWN((M34+VLOOKUP(VLOOKUP($K35,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K35,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" si="11"/>
         <v>122</v>
       </c>
       <c r="N35">
-        <f t="shared" ref="N35:N51" si="15">ROUNDDOWN((N34+VLOOKUP(VLOOKUP($K35,$R$3:$S$12,2,TRUE),$S$3:$X$12,V$2,FALSE))*VLOOKUP(VLOOKUP($K35,$R$15:$S$19,2,TRUE),$S$15:$X$19,V$14,FALSE),0)</f>
-        <v>42</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="O35">
-        <f t="shared" ref="O35:O51" si="16">ROUNDDOWN((O34+VLOOKUP(VLOOKUP($K35,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K35,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
+        <f t="shared" ref="O35:O51" si="15">ROUNDDOWN((O34+VLOOKUP(VLOOKUP($K35,$R$3:$S$12,2,TRUE),$S$3:$X$12,W$2,FALSE))*VLOOKUP(VLOOKUP($K35,$R$15:$S$19,2,TRUE),$S$15:$X$19,W$14,FALSE),0)</f>
         <v>226</v>
       </c>
       <c r="P35">
-        <f t="shared" ref="P35:P51" si="17">ROUNDDOWN((P34+VLOOKUP(VLOOKUP($K35,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K35,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
+        <f t="shared" ref="P35:P51" si="16">ROUNDDOWN((P34+VLOOKUP(VLOOKUP($K35,$R$3:$S$12,2,TRUE),$S$3:$X$12,X$2,FALSE))*VLOOKUP(VLOOKUP($K35,$R$15:$S$19,2,TRUE),$S$15:$X$19,X$14,FALSE),0)</f>
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A36" t="str">
-        <f t="shared" si="12"/>
-        <v>35,"142","135","46","233","38"</v>
+        <f t="shared" si="13"/>
+        <v>35,"142","135","2","233","38"</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -9361,9 +9370,9 @@
         <f t="shared" si="3"/>
         <v>135</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="4"/>
-        <v>46</v>
+      <c r="G36" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H36">
         <f t="shared" si="5"/>
@@ -9377,30 +9386,30 @@
         <v>35</v>
       </c>
       <c r="L36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>142</v>
       </c>
       <c r="M36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>135</v>
       </c>
       <c r="N36">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="15"/>
-        <v>46</v>
-      </c>
-      <c r="O36">
+        <v>233</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="16"/>
-        <v>233</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="17"/>
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A37" t="str">
-        <f t="shared" si="12"/>
-        <v>36,"156","149","50","240","40"</v>
+        <f t="shared" si="13"/>
+        <v>36,"156","149","2","240","40"</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -9413,9 +9422,9 @@
         <f t="shared" si="3"/>
         <v>149</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="4"/>
-        <v>50</v>
+      <c r="G37" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H37">
         <f t="shared" si="5"/>
@@ -9429,30 +9438,30 @@
         <v>36</v>
       </c>
       <c r="L37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>156</v>
       </c>
       <c r="M37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>149</v>
       </c>
       <c r="N37">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O37">
         <f t="shared" si="15"/>
-        <v>50</v>
-      </c>
-      <c r="O37">
+        <v>240</v>
+      </c>
+      <c r="P37">
         <f t="shared" si="16"/>
-        <v>240</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="17"/>
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A38" t="str">
-        <f t="shared" si="12"/>
-        <v>37,"171","164","54","247","42"</v>
+        <f t="shared" si="13"/>
+        <v>37,"171","164","2","247","42"</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -9465,9 +9474,9 @@
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="4"/>
-        <v>54</v>
+      <c r="G38" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H38">
         <f t="shared" si="5"/>
@@ -9481,30 +9490,30 @@
         <v>37</v>
       </c>
       <c r="L38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>171</v>
       </c>
       <c r="M38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>164</v>
       </c>
       <c r="N38">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="15"/>
-        <v>54</v>
-      </c>
-      <c r="O38">
+        <v>247</v>
+      </c>
+      <c r="P38">
         <f t="shared" si="16"/>
-        <v>247</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="17"/>
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A39" t="str">
-        <f t="shared" si="12"/>
-        <v>38,"187","180","58","255","44"</v>
+        <f t="shared" si="13"/>
+        <v>38,"187","180","2","255","44"</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -9517,9 +9526,9 @@
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="4"/>
-        <v>58</v>
+      <c r="G39" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H39">
         <f t="shared" si="5"/>
@@ -9533,30 +9542,30 @@
         <v>38</v>
       </c>
       <c r="L39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>187</v>
       </c>
       <c r="M39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>180</v>
       </c>
       <c r="N39">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="15"/>
-        <v>58</v>
-      </c>
-      <c r="O39">
+        <v>255</v>
+      </c>
+      <c r="P39">
         <f t="shared" si="16"/>
-        <v>255</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="17"/>
         <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A40" t="str">
-        <f t="shared" si="12"/>
-        <v>39,"205","197","63","263","46"</v>
+        <f t="shared" si="13"/>
+        <v>39,"205","197","2","263","46"</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -9569,9 +9578,9 @@
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="4"/>
-        <v>63</v>
+      <c r="G40" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H40">
         <f t="shared" si="5"/>
@@ -9585,30 +9594,30 @@
         <v>39</v>
       </c>
       <c r="L40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>205</v>
       </c>
       <c r="M40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>197</v>
       </c>
       <c r="N40">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O40">
         <f t="shared" si="15"/>
-        <v>63</v>
-      </c>
-      <c r="O40">
+        <v>263</v>
+      </c>
+      <c r="P40">
         <f t="shared" si="16"/>
-        <v>263</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="17"/>
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A41" t="str">
-        <f t="shared" si="12"/>
-        <v>40,"224","216","68","271","48"</v>
+        <f t="shared" si="13"/>
+        <v>40,"224","216","2","271","48"</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -9621,9 +9630,9 @@
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="4"/>
-        <v>68</v>
+      <c r="G41" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H41">
         <f t="shared" si="5"/>
@@ -9637,30 +9646,30 @@
         <v>40</v>
       </c>
       <c r="L41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>224</v>
       </c>
       <c r="M41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>216</v>
       </c>
       <c r="N41">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O41">
         <f t="shared" si="15"/>
-        <v>68</v>
-      </c>
-      <c r="O41">
+        <v>271</v>
+      </c>
+      <c r="P41">
         <f t="shared" si="16"/>
-        <v>271</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="17"/>
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A42" t="str">
-        <f t="shared" si="12"/>
-        <v>41,"249","240","77","283","52"</v>
+        <f t="shared" si="13"/>
+        <v>41,"249","240","2","283","52"</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -9673,9 +9682,9 @@
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="4"/>
-        <v>77</v>
+      <c r="G42" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H42">
         <f t="shared" si="5"/>
@@ -9689,30 +9698,30 @@
         <v>41</v>
       </c>
       <c r="L42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>249</v>
       </c>
       <c r="M42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>240</v>
       </c>
       <c r="N42">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O42">
         <f t="shared" si="15"/>
-        <v>77</v>
-      </c>
-      <c r="O42">
+        <v>283</v>
+      </c>
+      <c r="P42">
         <f t="shared" si="16"/>
-        <v>283</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="17"/>
         <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A43" t="str">
-        <f t="shared" si="12"/>
-        <v>42,"277","267","87","295","56"</v>
+        <f t="shared" si="13"/>
+        <v>42,"277","267","2","295","56"</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -9725,9 +9734,9 @@
         <f t="shared" si="3"/>
         <v>267</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="4"/>
-        <v>87</v>
+      <c r="G43" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H43">
         <f t="shared" si="5"/>
@@ -9741,30 +9750,30 @@
         <v>42</v>
       </c>
       <c r="L43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>277</v>
       </c>
       <c r="M43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>267</v>
       </c>
       <c r="N43">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="15"/>
-        <v>87</v>
-      </c>
-      <c r="O43">
+        <v>295</v>
+      </c>
+      <c r="P43">
         <f t="shared" si="16"/>
-        <v>295</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="17"/>
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A44" t="str">
-        <f t="shared" si="12"/>
-        <v>43,"308","297","98","307","60"</v>
+        <f t="shared" si="13"/>
+        <v>43,"308","297","2","307","60"</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -9777,9 +9786,9 @@
         <f t="shared" si="3"/>
         <v>297</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="4"/>
-        <v>98</v>
+      <c r="G44" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H44">
         <f t="shared" si="5"/>
@@ -9793,30 +9802,30 @@
         <v>43</v>
       </c>
       <c r="L44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>308</v>
       </c>
       <c r="M44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>297</v>
       </c>
       <c r="N44">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="15"/>
-        <v>98</v>
-      </c>
-      <c r="O44">
+        <v>307</v>
+      </c>
+      <c r="P44">
         <f t="shared" si="16"/>
-        <v>307</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="17"/>
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A45" t="str">
-        <f t="shared" si="12"/>
-        <v>44,"342","330","110","320","64"</v>
+        <f t="shared" si="13"/>
+        <v>44,"342","330","2","320","64"</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -9829,9 +9838,9 @@
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="4"/>
-        <v>110</v>
+      <c r="G45" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H45">
         <f t="shared" si="5"/>
@@ -9845,30 +9854,30 @@
         <v>44</v>
       </c>
       <c r="L45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>342</v>
       </c>
       <c r="M45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>330</v>
       </c>
       <c r="N45">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O45">
         <f t="shared" si="15"/>
-        <v>110</v>
-      </c>
-      <c r="O45">
+        <v>320</v>
+      </c>
+      <c r="P45">
         <f t="shared" si="16"/>
-        <v>320</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="17"/>
         <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A46" t="str">
-        <f t="shared" si="12"/>
-        <v>45,"379","366","123","333","69"</v>
+        <f t="shared" si="13"/>
+        <v>45,"379","366","2","333","69"</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -9881,9 +9890,9 @@
         <f t="shared" si="3"/>
         <v>366</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="4"/>
-        <v>123</v>
+      <c r="G46" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H46">
         <f t="shared" si="5"/>
@@ -9897,30 +9906,30 @@
         <v>45</v>
       </c>
       <c r="L46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>379</v>
       </c>
       <c r="M46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>366</v>
       </c>
       <c r="N46">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="15"/>
-        <v>123</v>
-      </c>
-      <c r="O46">
+        <v>333</v>
+      </c>
+      <c r="P46">
         <f t="shared" si="16"/>
-        <v>333</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="17"/>
         <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A47" t="str">
-        <f t="shared" si="12"/>
-        <v>46,"420","405","137","347","74"</v>
+        <f t="shared" si="13"/>
+        <v>46,"420","405","2","347","74"</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -9933,9 +9942,9 @@
         <f t="shared" si="3"/>
         <v>405</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="4"/>
-        <v>137</v>
+      <c r="G47" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H47">
         <f t="shared" si="5"/>
@@ -9949,30 +9958,30 @@
         <v>46</v>
       </c>
       <c r="L47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>420</v>
       </c>
       <c r="M47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>405</v>
       </c>
       <c r="N47">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="15"/>
-        <v>137</v>
-      </c>
-      <c r="O47">
+        <v>347</v>
+      </c>
+      <c r="P47">
         <f t="shared" si="16"/>
-        <v>347</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="17"/>
         <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A48" t="str">
-        <f t="shared" si="12"/>
-        <v>47,"465","448","152","361","79"</v>
+        <f t="shared" si="13"/>
+        <v>47,"465","448","2","361","79"</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -9985,9 +9994,9 @@
         <f t="shared" si="3"/>
         <v>448</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="4"/>
-        <v>152</v>
+      <c r="G48" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H48">
         <f t="shared" si="5"/>
@@ -10001,30 +10010,30 @@
         <v>47</v>
       </c>
       <c r="L48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>465</v>
       </c>
       <c r="M48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>448</v>
       </c>
       <c r="N48">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="15"/>
-        <v>152</v>
-      </c>
-      <c r="O48">
+        <v>361</v>
+      </c>
+      <c r="P48">
         <f t="shared" si="16"/>
-        <v>361</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="17"/>
         <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A49" t="str">
-        <f t="shared" si="12"/>
-        <v>48,"514","496","168","375","84"</v>
+        <f t="shared" si="13"/>
+        <v>48,"514","496","2","375","84"</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -10037,9 +10046,9 @@
         <f t="shared" si="3"/>
         <v>496</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="4"/>
-        <v>168</v>
+      <c r="G49" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H49">
         <f t="shared" si="5"/>
@@ -10053,30 +10062,30 @@
         <v>48</v>
       </c>
       <c r="L49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>514</v>
       </c>
       <c r="M49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>496</v>
       </c>
       <c r="N49">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="15"/>
-        <v>168</v>
-      </c>
-      <c r="O49">
+        <v>375</v>
+      </c>
+      <c r="P49">
         <f t="shared" si="16"/>
-        <v>375</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="17"/>
         <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A50" t="str">
-        <f t="shared" si="12"/>
-        <v>49,"568","548","185","390","89"</v>
+        <f t="shared" si="13"/>
+        <v>49,"568","548","2","390","89"</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -10089,9 +10098,9 @@
         <f t="shared" si="3"/>
         <v>548</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="4"/>
-        <v>185</v>
+      <c r="G50" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H50">
         <f t="shared" si="5"/>
@@ -10105,30 +10114,30 @@
         <v>49</v>
       </c>
       <c r="L50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>568</v>
       </c>
       <c r="M50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>548</v>
       </c>
       <c r="N50">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="15"/>
-        <v>185</v>
-      </c>
-      <c r="O50">
+        <v>390</v>
+      </c>
+      <c r="P50">
         <f t="shared" si="16"/>
-        <v>390</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="17"/>
         <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A51" t="str">
-        <f t="shared" si="12"/>
-        <v>50,"628","606","204","405","94"</v>
+        <f t="shared" si="13"/>
+        <v>50,"628","606","2","405","94"</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -10141,9 +10150,9 @@
         <f t="shared" si="3"/>
         <v>606</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="4"/>
-        <v>204</v>
+      <c r="G51" s="9">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H51">
         <f t="shared" si="5"/>
@@ -10157,23 +10166,23 @@
         <v>50</v>
       </c>
       <c r="L51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>628</v>
       </c>
       <c r="M51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>606</v>
       </c>
       <c r="N51">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="15"/>
-        <v>204</v>
-      </c>
-      <c r="O51">
+        <v>405</v>
+      </c>
+      <c r="P51">
         <f t="shared" si="16"/>
-        <v>405</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="17"/>
         <v>94</v>
       </c>
     </row>

--- a/docs/간이 스탯 계산식.xlsx
+++ b/docs/간이 스탯 계산식.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\molu\molu\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923A09F5-ED07-40DA-A1EB-648656584FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5116A8BB-8C19-4DF2-A7C6-436B2A176552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="60" windowWidth="18180" windowHeight="12696" xr2:uid="{5147BE65-AD01-43B4-BCC8-E6E7C0348578}"/>
+    <workbookView xWindow="4860" yWindow="60" windowWidth="18180" windowHeight="12696" activeTab="2" xr2:uid="{5147BE65-AD01-43B4-BCC8-E6E7C0348578}"/>
   </bookViews>
   <sheets>
     <sheet name="구울 스탯" sheetId="3" r:id="rId1"/>
     <sheet name="고블린 스탯" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="소환 확률" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>몹hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,16 +117,34 @@
     <t>쿨*값/1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Gobline</t>
+  </si>
+  <si>
+    <t>Ghoul</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Ghoul_Enhanced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="180" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -172,7 +191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,11 +213,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -4137,7 +4159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B37FC4-7778-42AF-B66D-848027D55C0B}">
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q56" sqref="Q56"/>
     </sheetView>
@@ -7169,8 +7191,8 @@
   <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A51"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7180,10 +7202,10 @@
     <col min="3" max="3" width="3.69921875" customWidth="1"/>
     <col min="5" max="5" width="4.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.8984375" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.296875" customWidth="1"/>
     <col min="9" max="9" width="8.59765625" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="8" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.4">
@@ -7200,7 +7222,7 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H1" t="s">
@@ -7218,7 +7240,7 @@
       <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>17</v>
       </c>
       <c r="O1" t="s">
@@ -7259,7 +7281,7 @@
         <f t="shared" ref="F2:I2" si="1">M2</f>
         <v>2</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -7280,7 +7302,7 @@
       <c r="M2">
         <v>2</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>2</v>
       </c>
       <c r="O2">
@@ -7321,7 +7343,7 @@
         <f t="shared" ref="F3:F51" si="3">M3</f>
         <v>3</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <f t="shared" ref="G3:G51" si="4">N3</f>
         <v>2</v>
       </c>
@@ -7341,7 +7363,7 @@
         <v>5</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:N34" si="8">ROUNDDOWN((M2+VLOOKUP(VLOOKUP($K3,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K3,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
+        <f t="shared" ref="M3:N3" si="8">ROUNDDOWN((M2+VLOOKUP(VLOOKUP($K3,$R$3:$S$12,2,TRUE),$S$3:$X$12,U$2,FALSE))*VLOOKUP(VLOOKUP($K3,$R$15:$S$19,2,TRUE),$S$15:$X$19,U$14,FALSE),0)</f>
         <v>3</v>
       </c>
       <c r="N3">
@@ -7394,7 +7416,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -7467,7 +7489,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -7540,7 +7562,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -7613,7 +7635,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -7686,7 +7708,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -7759,7 +7781,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -7832,7 +7854,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -7905,7 +7927,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -7978,7 +8000,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -8051,7 +8073,7 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -8103,7 +8125,7 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -8170,7 +8192,7 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -8243,7 +8265,7 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -8316,7 +8338,7 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -8389,7 +8411,7 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -8462,7 +8484,7 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -8535,7 +8557,7 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -8587,7 +8609,7 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -8642,7 +8664,7 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -8694,7 +8716,7 @@
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -8746,7 +8768,7 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -8798,7 +8820,7 @@
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -8850,7 +8872,7 @@
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -8902,7 +8924,7 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -8954,7 +8976,7 @@
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -9006,7 +9028,7 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -9058,7 +9080,7 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -9110,7 +9132,7 @@
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -9162,7 +9184,7 @@
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -9214,7 +9236,7 @@
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -9266,7 +9288,7 @@
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -9318,7 +9340,7 @@
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -9370,7 +9392,7 @@
         <f t="shared" si="3"/>
         <v>135</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -9422,7 +9444,7 @@
         <f t="shared" si="3"/>
         <v>149</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -9474,7 +9496,7 @@
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -9526,7 +9548,7 @@
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -9578,7 +9600,7 @@
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -9630,7 +9652,7 @@
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -9682,7 +9704,7 @@
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -9734,7 +9756,7 @@
         <f t="shared" si="3"/>
         <v>267</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -9786,7 +9808,7 @@
         <f t="shared" si="3"/>
         <v>297</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -9838,7 +9860,7 @@
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -9890,7 +9912,7 @@
         <f t="shared" si="3"/>
         <v>366</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -9942,7 +9964,7 @@
         <f t="shared" si="3"/>
         <v>405</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -9994,7 +10016,7 @@
         <f t="shared" si="3"/>
         <v>448</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -10046,7 +10068,7 @@
         <f t="shared" si="3"/>
         <v>496</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -10098,7 +10120,7 @@
         <f t="shared" si="3"/>
         <v>548</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -10150,7 +10172,7 @@
         <f t="shared" si="3"/>
         <v>606</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="8">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -10194,6 +10216,1533 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607F8F62-C6C1-4693-A9B0-4B40F61B5443}">
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="23.8984375" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="str">
+        <f t="shared" ref="A1:A51" si="0">D1&amp;","&amp;""""&amp;E1&amp;""""&amp;","&amp;""""&amp;F1&amp;""""&amp;","&amp;""""&amp;G1&amp;""""&amp;","&amp;""""&amp;H1&amp;""""&amp;","&amp;""""&amp;I1&amp;""""</f>
+        <v>---,"Gobline","Ghoul","Skeleton","Ghoul_Enhanced","Lich"</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,"100","0","0","0","0"</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:I17" si="1">M2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>SUM(E2:I2)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v>2,"100","0","0","0","0"</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J51" si="2">SUM(E3:I3)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>3,"100","0","0","0","0"</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>4,"90","10","0","0","0"</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>90</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>5,"90","10","0","0","0"</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>90</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>6,"80","20","0","0","0"</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>80</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>7,"80","20","0","0","0"</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>8,"80","20","0","0","0"</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>9,"70","30","0","0","0"</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>70</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>10,"70","30","0","0","0"</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>70</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>11,"70","30","0","0","0"</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>70</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>12,"50","40","10","0","0"</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>40</v>
+      </c>
+      <c r="G13" s="10">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>13,"50","40","10","0","0"</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>40</v>
+      </c>
+      <c r="G14" s="10">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>14,"50","40","10","0","0"</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>40</v>
+      </c>
+      <c r="G15" s="10">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>15,"50","40","10","0","0"</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>40</v>
+      </c>
+      <c r="G16" s="10">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>16,"40","40","20","0","0"</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+      <c r="G17" s="10">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>17,"20","40","30","10","0"</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>40</v>
+      </c>
+      <c r="G18" s="10">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="E3:I51" si="3">P18</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>18,"20","40","30","10","0"</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>40</v>
+      </c>
+      <c r="G19" s="10">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>19,"20","40","30","10","0"</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>40</v>
+      </c>
+      <c r="G20" s="10">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>20,"20","40","30","10","0"</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>40</v>
+      </c>
+      <c r="G21" s="10">
+        <v>30</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>21,"20","40","30","10","0"</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>40</v>
+      </c>
+      <c r="G22" s="10">
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>22,"20","40","30","10","0"</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>40</v>
+      </c>
+      <c r="G23" s="10">
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>23,"20","40","30","10","0"</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>40</v>
+      </c>
+      <c r="G24" s="10">
+        <v>30</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>24,"20","40","30","10","0"</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>40</v>
+      </c>
+      <c r="G25" s="10">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>25,"20","40","30","10","0"</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>40</v>
+      </c>
+      <c r="G26" s="10">
+        <v>30</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>26,"25","25","25","25","0"</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>25</v>
+      </c>
+      <c r="H27">
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>27,"25","25","25","25","0"</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>25</v>
+      </c>
+      <c r="H28">
+        <v>25</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>28,"25","25","25","25","0"</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>25</v>
+      </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+      <c r="G29">
+        <v>25</v>
+      </c>
+      <c r="H29">
+        <v>25</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>29,"10","20","30","40","0"</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30" s="10">
+        <v>30</v>
+      </c>
+      <c r="H30">
+        <v>40</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>30,"10","20","30","40","0"</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31" s="10">
+        <v>30</v>
+      </c>
+      <c r="H31">
+        <v>40</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>31,"10","20","30","40","0"</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32" s="10">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <v>40</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>32,"10","20","30","40","0"</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33" s="10">
+        <v>30</v>
+      </c>
+      <c r="H33">
+        <v>40</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>33,"10","20","30","40","0"</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34" s="10">
+        <v>30</v>
+      </c>
+      <c r="H34">
+        <v>40</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>34,"10","20","30","40","0"</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="G35" s="10">
+        <v>30</v>
+      </c>
+      <c r="H35">
+        <v>40</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>35,"10","20","30","40","0"</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>20</v>
+      </c>
+      <c r="G36" s="10">
+        <v>30</v>
+      </c>
+      <c r="H36">
+        <v>40</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>36,"10","10","30","50","0"</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37" s="10">
+        <v>30</v>
+      </c>
+      <c r="H37">
+        <v>50</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>37,"10","10","30","50","0"</v>
+      </c>
+      <c r="D38">
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38" s="10">
+        <v>30</v>
+      </c>
+      <c r="H38">
+        <v>50</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>38,"10","10","30","50","0"</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39" s="10">
+        <v>30</v>
+      </c>
+      <c r="H39">
+        <v>50</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>39,"10","10","30","50","0"</v>
+      </c>
+      <c r="D40">
+        <v>39</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40" s="10">
+        <v>30</v>
+      </c>
+      <c r="H40">
+        <v>50</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>40,"10","10","30","50","0"</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41" s="10">
+        <v>30</v>
+      </c>
+      <c r="H41">
+        <v>50</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>41,"10","10","30","50","0"</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42" s="10">
+        <v>30</v>
+      </c>
+      <c r="H42">
+        <v>50</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>42,"10","10","30","50","0"</v>
+      </c>
+      <c r="D43">
+        <v>42</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43" s="10">
+        <v>30</v>
+      </c>
+      <c r="H43">
+        <v>50</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>43,"10","10","30","50","0"</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44" s="10">
+        <v>30</v>
+      </c>
+      <c r="H44">
+        <v>50</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>44,"10","10","30","50","0"</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45" s="10">
+        <v>30</v>
+      </c>
+      <c r="H45">
+        <v>50</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>45,"10","10","30","50","0"</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46" s="10">
+        <v>30</v>
+      </c>
+      <c r="H46">
+        <v>50</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>46,"10","10","30","50","0"</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47" s="10">
+        <v>30</v>
+      </c>
+      <c r="H47">
+        <v>50</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>47,"10","10","30","50","0"</v>
+      </c>
+      <c r="D48">
+        <v>47</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48" s="10">
+        <v>30</v>
+      </c>
+      <c r="H48">
+        <v>50</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>48,"10","10","30","50","0"</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49" s="10">
+        <v>30</v>
+      </c>
+      <c r="H49">
+        <v>50</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>49,"10","10","30","50","0"</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50" s="10">
+        <v>30</v>
+      </c>
+      <c r="H50">
+        <v>50</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>50,"0","0","0","0","100"</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>100</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0097B4B-5DBD-433D-AC90-CE7BBD16536B}">
   <dimension ref="B1:AH60"/>
   <sheetViews>
@@ -10236,12 +11785,12 @@
       </c>
     </row>
     <row r="2" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.4">
       <c r="N3">
@@ -10258,48 +11807,48 @@
       </c>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
+      <c r="W4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="7" t="s">
+      <c r="AA4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
       <c r="AD4" s="1"/>
       <c r="AH4" s="1"/>
     </row>

--- a/docs/간이 스탯 계산식.xlsx
+++ b/docs/간이 스탯 계산식.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\molu\molu\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5116A8BB-8C19-4DF2-A7C6-436B2A176552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C5098A-1715-4958-BCAC-C724180ED309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="60" windowWidth="18180" windowHeight="12696" activeTab="2" xr2:uid="{5147BE65-AD01-43B4-BCC8-E6E7C0348578}"/>
+    <workbookView xWindow="4296" yWindow="24" windowWidth="18744" windowHeight="12696" firstSheet="1" activeTab="4" xr2:uid="{5147BE65-AD01-43B4-BCC8-E6E7C0348578}"/>
   </bookViews>
   <sheets>
     <sheet name="구울 스탯" sheetId="3" r:id="rId1"/>
     <sheet name="고블린 스탯" sheetId="2" r:id="rId2"/>
     <sheet name="소환 확률" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="플레이어 스탯 증가량" sheetId="5" r:id="rId4"/>
+    <sheet name="업그레이드" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
   <si>
     <t>몹hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +136,217 @@
     <t>Lich</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Max_HP_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Speed_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shoot_Cool_Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immediate_Recovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gradual_Recovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move_Speed_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Homing_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pene_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explosion_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount_UP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calc_Style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Homing_ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pene_ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explosion_ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multishot_ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/7_MoveSpeedUP.7_MoveSpeedUP'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/0_MAXHP.0_MAXHP'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/1_RangeUP.1_RangeUP'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/2_DamUP.2_DamUP'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/3_BulletSpeedUP.3_BulletSpeedUP'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/4_Shootcool.4_Shootcool'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/5_NowUP.5_NowUP'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/6_GraUP.6_GraUP'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/8_HomingON.8_HomingON'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/9_PeneON.9_PeneON'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/10_ExplosionON.10_ExplosionON'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/11_BulletNumON.11_BulletNumON'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/12_HomingUP.12_HomingUP'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/13_PeneUP.13_PeneUP'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/14_ExplosionNUP.14_ExplosionNUP'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/15_BulletNumUP.15_BulletNumUP'</t>
+  </si>
+  <si>
+    <t>유도 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관통 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다탄 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedEXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가</t>
+  </si>
+  <si>
+    <t>증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 생명력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유도력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관통 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사 탄 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -219,11 +432,11 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2664,6 +2877,378 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'플레이어 스탯 증가량'!$E$3:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2634</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3503</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4658</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6195</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8239</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9886</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11863</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14235</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17082</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20498</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24597</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29516</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35419</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0737-403B-A3FF-61EEBA428BF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="44734176"/>
+        <c:axId val="44765312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="44734176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44765312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44765312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44734176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2705,6 +3290,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3776,6 +4401,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3840,6 +4981,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F98432F8-98A6-435C-392A-05235824AB70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>224790</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A2F63D0-E201-F5C4-D57B-608E30D13CFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7191,8 +8373,8 @@
   <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I51"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -10219,14 +11401,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607F8F62-C6C1-4693-A9B0-4B40F61B5443}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.8984375" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" style="10"/>
+    <col min="7" max="7" width="8.796875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
@@ -10243,7 +11425,7 @@
       <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H1" t="s">
@@ -10268,7 +11450,7 @@
         <f t="shared" ref="F2:I17" si="1">M2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10300,7 +11482,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10332,7 +11514,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10363,7 +11545,7 @@
       <c r="F5">
         <v>10</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10394,7 +11576,7 @@
       <c r="F6">
         <v>10</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10425,7 +11607,7 @@
       <c r="F7">
         <v>20</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10456,7 +11638,7 @@
       <c r="F8">
         <v>20</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10487,7 +11669,7 @@
       <c r="F9">
         <v>20</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10518,7 +11700,7 @@
       <c r="F10">
         <v>30</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10549,7 +11731,7 @@
       <c r="F11">
         <v>30</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10580,7 +11762,7 @@
       <c r="F12">
         <v>30</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -10611,7 +11793,7 @@
       <c r="F13">
         <v>40</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>10</v>
       </c>
       <c r="H13">
@@ -10641,7 +11823,7 @@
       <c r="F14">
         <v>40</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>10</v>
       </c>
       <c r="H14">
@@ -10671,7 +11853,7 @@
       <c r="F15">
         <v>40</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>10</v>
       </c>
       <c r="H15">
@@ -10701,7 +11883,7 @@
       <c r="F16">
         <v>40</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>10</v>
       </c>
       <c r="H16">
@@ -10731,7 +11913,7 @@
       <c r="F17">
         <v>40</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>20</v>
       </c>
       <c r="H17">
@@ -10761,14 +11943,14 @@
       <c r="F18">
         <v>40</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>30</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <f t="shared" ref="E3:I51" si="3">P18</f>
+        <f t="shared" ref="E18:I51" si="3">P18</f>
         <v>0</v>
       </c>
       <c r="J18">
@@ -10790,7 +11972,7 @@
       <c r="F19">
         <v>40</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>30</v>
       </c>
       <c r="H19">
@@ -10819,7 +12001,7 @@
       <c r="F20">
         <v>40</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>30</v>
       </c>
       <c r="H20">
@@ -10848,7 +12030,7 @@
       <c r="F21">
         <v>40</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>30</v>
       </c>
       <c r="H21">
@@ -10877,7 +12059,7 @@
       <c r="F22">
         <v>40</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>30</v>
       </c>
       <c r="H22">
@@ -10906,7 +12088,7 @@
       <c r="F23">
         <v>40</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>30</v>
       </c>
       <c r="H23">
@@ -10935,7 +12117,7 @@
       <c r="F24">
         <v>40</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <v>30</v>
       </c>
       <c r="H24">
@@ -10964,7 +12146,7 @@
       <c r="F25">
         <v>40</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <v>30</v>
       </c>
       <c r="H25">
@@ -10993,7 +12175,7 @@
       <c r="F26">
         <v>40</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="9">
         <v>30</v>
       </c>
       <c r="H26">
@@ -11109,7 +12291,7 @@
       <c r="F30">
         <v>20</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <v>30</v>
       </c>
       <c r="H30">
@@ -11138,7 +12320,7 @@
       <c r="F31">
         <v>20</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="9">
         <v>30</v>
       </c>
       <c r="H31">
@@ -11167,7 +12349,7 @@
       <c r="F32">
         <v>20</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="9">
         <v>30</v>
       </c>
       <c r="H32">
@@ -11196,7 +12378,7 @@
       <c r="F33">
         <v>20</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="9">
         <v>30</v>
       </c>
       <c r="H33">
@@ -11225,7 +12407,7 @@
       <c r="F34">
         <v>20</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="9">
         <v>30</v>
       </c>
       <c r="H34">
@@ -11254,7 +12436,7 @@
       <c r="F35">
         <v>20</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <v>30</v>
       </c>
       <c r="H35">
@@ -11283,7 +12465,7 @@
       <c r="F36">
         <v>20</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="9">
         <v>30</v>
       </c>
       <c r="H36">
@@ -11312,7 +12494,7 @@
       <c r="F37">
         <v>10</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="9">
         <v>30</v>
       </c>
       <c r="H37">
@@ -11341,7 +12523,7 @@
       <c r="F38">
         <v>10</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="9">
         <v>30</v>
       </c>
       <c r="H38">
@@ -11370,7 +12552,7 @@
       <c r="F39">
         <v>10</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="9">
         <v>30</v>
       </c>
       <c r="H39">
@@ -11399,7 +12581,7 @@
       <c r="F40">
         <v>10</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="9">
         <v>30</v>
       </c>
       <c r="H40">
@@ -11428,7 +12610,7 @@
       <c r="F41">
         <v>10</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="9">
         <v>30</v>
       </c>
       <c r="H41">
@@ -11457,7 +12639,7 @@
       <c r="F42">
         <v>10</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="9">
         <v>30</v>
       </c>
       <c r="H42">
@@ -11486,7 +12668,7 @@
       <c r="F43">
         <v>10</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="9">
         <v>30</v>
       </c>
       <c r="H43">
@@ -11515,7 +12697,7 @@
       <c r="F44">
         <v>10</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="9">
         <v>30</v>
       </c>
       <c r="H44">
@@ -11544,7 +12726,7 @@
       <c r="F45">
         <v>10</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="9">
         <v>30</v>
       </c>
       <c r="H45">
@@ -11573,7 +12755,7 @@
       <c r="F46">
         <v>10</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="9">
         <v>30</v>
       </c>
       <c r="H46">
@@ -11602,7 +12784,7 @@
       <c r="F47">
         <v>10</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="9">
         <v>30</v>
       </c>
       <c r="H47">
@@ -11631,7 +12813,7 @@
       <c r="F48">
         <v>10</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="9">
         <v>30</v>
       </c>
       <c r="H48">
@@ -11660,7 +12842,7 @@
       <c r="F49">
         <v>10</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="9">
         <v>30</v>
       </c>
       <c r="H49">
@@ -11689,7 +12871,7 @@
       <c r="F50">
         <v>10</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="9">
         <v>30</v>
       </c>
       <c r="H50">
@@ -11720,7 +12902,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -11743,6 +12925,2998 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9D2391-241F-43CC-920D-265C49CF3A15}">
+  <dimension ref="A1:Q51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="3" width="4.59765625" customWidth="1"/>
+    <col min="4" max="4" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.296875" customWidth="1"/>
+    <col min="6" max="6" width="6.8984375" customWidth="1"/>
+    <col min="7" max="7" width="5.69921875" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="10.796875" customWidth="1"/>
+    <col min="10" max="10" width="9.69921875" customWidth="1"/>
+    <col min="11" max="11" width="12.19921875" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="11.59765625" customWidth="1"/>
+    <col min="14" max="14" width="9.5" customWidth="1"/>
+    <col min="15" max="15" width="7.8984375" customWidth="1"/>
+    <col min="16" max="16" width="11.796875" customWidth="1"/>
+    <col min="17" max="17" width="11.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A1" t="str">
+        <f>D1&amp;","&amp;""""&amp;E1&amp;""""&amp;","&amp;""""&amp;F1&amp;""""&amp;","&amp;""""&amp;G1&amp;""""&amp;","&amp;""""&amp;H1&amp;""""&amp;","&amp;""""&amp;I1&amp;""""&amp;","&amp;""""&amp;J1&amp;""""&amp;","&amp;""""&amp;K1&amp;""""&amp;","&amp;""""&amp;L1&amp;""""&amp;","&amp;""""&amp;M1&amp;""""&amp;","&amp;""""&amp;N1&amp;""""&amp;","&amp;""""&amp;O1&amp;""""&amp;","&amp;""""&amp;P1&amp;""""&amp;","&amp;""""&amp;Q1&amp;""""</f>
+        <v>---,"NeedEXP","Max_HP_UP","Range_UP","Damage_UP","Bullet_Speed_UP","Shoot_Cool_Down","Immediate_Recovery","Gradual_Recovery","Move_Speed_UP","Homing_UP","Pene_UP","Explosion_UP","Amount_UP"</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:A51" si="0">D2&amp;","&amp;""""&amp;E2&amp;""""&amp;","&amp;""""&amp;F2&amp;""""&amp;","&amp;""""&amp;G2&amp;""""&amp;","&amp;""""&amp;H2&amp;""""&amp;","&amp;""""&amp;I2&amp;""""&amp;","&amp;""""&amp;J2&amp;""""&amp;","&amp;""""&amp;K2&amp;""""&amp;","&amp;""""&amp;L2&amp;""""&amp;","&amp;""""&amp;M2&amp;""""&amp;","&amp;""""&amp;N2&amp;""""&amp;","&amp;""""&amp;O2&amp;""""&amp;","&amp;""""&amp;P2&amp;""""&amp;","&amp;""""&amp;Q2&amp;""""</f>
+        <v>0,"12","20","1500","2","1000","1","40","0.2","600","0","0","0","0"</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>1500</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>40</v>
+      </c>
+      <c r="L2">
+        <v>0.2</v>
+      </c>
+      <c r="M2">
+        <v>600</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v>1,"14","22","1520","3","1020","0.98","40","0.22","610","5000","1","100","1"</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>1520</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>1020</v>
+      </c>
+      <c r="J3">
+        <v>0.98</v>
+      </c>
+      <c r="K3">
+        <v>40</v>
+      </c>
+      <c r="L3">
+        <v>0.22</v>
+      </c>
+      <c r="M3">
+        <v>610</v>
+      </c>
+      <c r="N3">
+        <v>5000</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>2,"21","30","1565","6","1050","0.94","40","0.26","650","5100","2","108","2"</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>ROUNDDOWN(E3*1.5,0)</f>
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <f>ROUNDDOWN(F3*1.4,0)</f>
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <f>ROUNDDOWN(G3*1.03,0)</f>
+        <v>1565</v>
+      </c>
+      <c r="H4">
+        <f>H3+D5</f>
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>1050</v>
+      </c>
+      <c r="J4">
+        <f>ROUNDDOWN(J3*0.96,2)</f>
+        <v>0.94</v>
+      </c>
+      <c r="K4">
+        <v>40</v>
+      </c>
+      <c r="L4">
+        <f>ROUNDDOWN(L3*1.2,2)</f>
+        <v>0.26</v>
+      </c>
+      <c r="M4">
+        <f>ROUNDDOWN(M3*1.08,-1)</f>
+        <v>650</v>
+      </c>
+      <c r="N4">
+        <f>ROUNDDOWN(N3*1.02,-2)</f>
+        <v>5100</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <f>ROUNDDOWN(P3*1.08,0)</f>
+        <v>108</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>3,"31","42","1611","10","1100","0.9","40","0.31","700","5200","3","116","3"</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E51" si="1">ROUNDDOWN(E4*1.5,0)</f>
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F12" si="2">ROUNDDOWN(F4*1.4,0)</f>
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G12" si="3">ROUNDDOWN(G4*1.03,0)</f>
+        <v>1611</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H12" si="4">H4+D6</f>
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>1100</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J12" si="5">ROUNDDOWN(J4*0.96,2)</f>
+        <v>0.9</v>
+      </c>
+      <c r="K5">
+        <v>40</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L12" si="6">ROUNDDOWN(L4*1.2,2)</f>
+        <v>0.31</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M12" si="7">ROUNDDOWN(M4*1.08,-1)</f>
+        <v>700</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N12" si="8">ROUNDDOWN(N4*1.02,-2)</f>
+        <v>5200</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P12" si="9">ROUNDDOWN(P4*1.08,0)</f>
+        <v>116</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>4,"46","58","1659","15","1200","0.86","40","0.37","750","5300","4","125","4"</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>1659</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>1200</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>0.86</v>
+      </c>
+      <c r="K6">
+        <v>40</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>0.37</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="7"/>
+        <v>750</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="8"/>
+        <v>5300</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="9"/>
+        <v>125</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>5,"69","81","1708","21","1400","0.82","40","0.44","810","5400","5","135","5"</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>1708</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>1400</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>0.82</v>
+      </c>
+      <c r="K7">
+        <v>40</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>0.44</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="7"/>
+        <v>810</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="8"/>
+        <v>5400</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="9"/>
+        <v>135</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>6,"103","113","1759","28","1428","0.78","40","0.52","870","5500","6","145","6"</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>1759</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I5:I12" si="10">ROUNDDOWN(I7*1.02,0)</f>
+        <v>1428</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>0.78</v>
+      </c>
+      <c r="K8">
+        <v>40</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>0.52</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="7"/>
+        <v>870</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="8"/>
+        <v>5500</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="9"/>
+        <v>145</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>7,"154","158","1811","36","1500","0.74","40","0.62","930","5600","7","156","7"</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>1811</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="I9">
+        <v>1500</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>0.74</v>
+      </c>
+      <c r="K9">
+        <v>40</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>0.62</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>930</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="8"/>
+        <v>5600</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="9"/>
+        <v>156</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>8,"190","221","1865","45","1600","0.71","40","0.74","1000","5700","8","168","8"</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>190</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>221</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>1865</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="I10">
+        <v>1600</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>0.71</v>
+      </c>
+      <c r="K10">
+        <v>40</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="6"/>
+        <v>0.74</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="8"/>
+        <v>5700</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="9"/>
+        <v>168</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>9,"270","309","1920","55","1700","0.68","40","0.88","1080","5800","9","181","9"</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>270</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>309</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>1920</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="I11">
+        <v>1700</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>0.68</v>
+      </c>
+      <c r="K11">
+        <v>40</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="6"/>
+        <v>0.88</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="7"/>
+        <v>1080</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="8"/>
+        <v>5800</v>
+      </c>
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="9"/>
+        <v>181</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>10,"359","432","1977","66","1800","0.65","40","1.05","1160","5900","10","195","10"</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f>ROUNDDOWN(E11*1.33,0)</f>
+        <v>359</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>432</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>1977</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="I12">
+        <v>1800</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>0.65</v>
+      </c>
+      <c r="K12">
+        <v>40</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="6"/>
+        <v>1.05</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="7"/>
+        <v>1160</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="8"/>
+        <v>5900</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="9"/>
+        <v>195</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>11,"477","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E51" si="11">ROUNDDOWN(E12*1.33,0)</f>
+        <v>477</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>12,"634","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="11"/>
+        <v>634</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>13,"843","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="11"/>
+        <v>843</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>14,"1121","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="11"/>
+        <v>1121</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>15,"1490","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="11"/>
+        <v>1490</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>16,"1981","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="11"/>
+        <v>1981</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>17,"2634","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="11"/>
+        <v>2634</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>18,"3503","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="11"/>
+        <v>3503</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>19,"4658","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="11"/>
+        <v>4658</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>20,"6195","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="11"/>
+        <v>6195</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>21,"8239","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="11"/>
+        <v>8239</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>22,"9886","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <f>ROUNDDOWN(E23*1.2,0)</f>
+        <v>9886</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>23,"11863","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:E51" si="12">ROUNDDOWN(E24*1.2,0)</f>
+        <v>11863</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>24,"14235","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="12"/>
+        <v>14235</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>25,"17082","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="12"/>
+        <v>17082</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>26,"20498","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="12"/>
+        <v>20498</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>27,"24597","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="12"/>
+        <v>24597</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>28,"29516","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="12"/>
+        <v>29516</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>29,"35419","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="12"/>
+        <v>35419</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>30,"42502","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="12"/>
+        <v>42502</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>31,"51002","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="12"/>
+        <v>51002</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>32,"61202","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="12"/>
+        <v>61202</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>33,"73442","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="12"/>
+        <v>73442</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>34,"88130","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="12"/>
+        <v>88130</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>35,"96943","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <f>ROUNDDOWN(E36*1.1,0)</f>
+        <v>96943</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>36,"106637","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38:E51" si="13">ROUNDDOWN(E37*1.1,0)</f>
+        <v>106637</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>37,"117300","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D39">
+        <v>37</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="13"/>
+        <v>117300</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>38,"129030","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D40">
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="13"/>
+        <v>129030</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>39,"141933","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="13"/>
+        <v>141933</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>40,"156126","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="13"/>
+        <v>156126</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>41,"171738","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D43">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="13"/>
+        <v>171738</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>42,"188911","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="13"/>
+        <v>188911</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>43,"207802","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D45">
+        <v>43</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="13"/>
+        <v>207802</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>44,"228582","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="13"/>
+        <v>228582</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>45,"251440","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D47">
+        <v>45</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="13"/>
+        <v>251440</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>46,"276584","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D48">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="13"/>
+        <v>276584</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>47,"304242","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D49">
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="13"/>
+        <v>304242</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>48,"334666","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D50">
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="13"/>
+        <v>334666</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>49,"368132","0","0","0","0","0","0","0","0","0","0","0","0"</v>
+      </c>
+      <c r="D51">
+        <v>49</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="13"/>
+        <v>368132</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4DC91B-F471-4251-A770-7CE1E2FE12BD}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="23.8984375" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="str">
+        <f>D1&amp;","&amp;""""&amp;E1&amp;""""&amp;","&amp;""""&amp;F1&amp;""""&amp;","&amp;""""&amp;G1&amp;""""&amp;","&amp;""""&amp;H1&amp;""""</f>
+        <v>---,"Index","Name","Icon","Calc_Style"</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:A17" si="0">D2&amp;","&amp;""""&amp;E2&amp;""""&amp;","&amp;""""&amp;F2&amp;""""&amp;","&amp;""""&amp;G2&amp;""""&amp;","&amp;""""&amp;H2&amp;""""</f>
+        <v>Max_HP_UP,"0","최대 생명력","/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/0_MAXHP.0_MAXHP'","증가"</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v>Range_UP,"1","사거리","/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/1_RangeUP.1_RangeUP'","증가"</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>Damage_UP,"2","데미지","/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/2_DamUP.2_DamUP'","증가"</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Bullet_Speed_UP,"3","탄 속도","/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/3_BulletSpeedUP.3_BulletSpeedUP'","증가"</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Shoot_Cool_Down,"4","발사 속도","/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/4_Shootcool.4_Shootcool'","감소"</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Immediate_Recovery,"5","생명력","/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/5_NowUP.5_NowUP'","% 회복"</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>Gradual_Recovery,"6","회복력","/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/6_GraUP.6_GraUP'","증가"</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>Move_Speed_UP,"7","이동 속도","/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/7_MoveSpeedUP.7_MoveSpeedUP'","증가"</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>Homing_ON,"8","유도 활성화","/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/8_HomingON.8_HomingON'"," "</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>Pene_ON,"9","관통 활성화","/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/9_PeneON.9_PeneON'"," "</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>Explosion_ON,"10","폭발 활성화","/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/10_ExplosionON.10_ExplosionON'"," "</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>Multishot_ON,"11","다탄 활성화","/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/11_BulletNumON.11_BulletNumON'"," "</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>Homing_UP,"12","유도력","/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/12_HomingUP.12_HomingUP'","증가"</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>Pene_UP,"13","관통 횟수","/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/13_PeneUP.13_PeneUP'","증가"</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>Explosion_UP,"14","폭발 범위","/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/14_ExplosionNUP.14_ExplosionNUP'","증가"</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>Amount_UP,"15","발사 탄 수","/Script/Engine.Texture2D'/Game/1_Ours/Resources/2D/UI2d/15_BulletNumUP.15_BulletNumUP'","증가"</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0097B4B-5DBD-433D-AC90-CE7BBD16536B}">
   <dimension ref="B1:AH60"/>
   <sheetViews>
@@ -11785,12 +15959,12 @@
       </c>
     </row>
     <row r="2" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.4">
       <c r="N3">
@@ -11807,48 +15981,48 @@
       </c>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.4">
-      <c r="B4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="9" t="s">
+      <c r="AA4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
       <c r="AD4" s="1"/>
       <c r="AH4" s="1"/>
     </row>

--- a/docs/간이 스탯 계산식.xlsx
+++ b/docs/간이 스탯 계산식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\molu\molu\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C5098A-1715-4958-BCAC-C724180ED309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AA04BE-C2F6-4314-AE7B-3D0455814FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4296" yWindow="24" windowWidth="18744" windowHeight="12696" firstSheet="1" activeTab="4" xr2:uid="{5147BE65-AD01-43B4-BCC8-E6E7C0348578}"/>
+    <workbookView xWindow="4296" yWindow="24" windowWidth="18744" windowHeight="12696" firstSheet="1" activeTab="3" xr2:uid="{5147BE65-AD01-43B4-BCC8-E6E7C0348578}"/>
   </bookViews>
   <sheets>
     <sheet name="구울 스탯" sheetId="3" r:id="rId1"/>
@@ -12928,8 +12928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9D2391-241F-43CC-920D-265C49CF3A15}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A51"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13006,7 +13006,7 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A51" si="0">D2&amp;","&amp;""""&amp;E2&amp;""""&amp;","&amp;""""&amp;F2&amp;""""&amp;","&amp;""""&amp;G2&amp;""""&amp;","&amp;""""&amp;H2&amp;""""&amp;","&amp;""""&amp;I2&amp;""""&amp;","&amp;""""&amp;J2&amp;""""&amp;","&amp;""""&amp;K2&amp;""""&amp;","&amp;""""&amp;L2&amp;""""&amp;","&amp;""""&amp;M2&amp;""""&amp;","&amp;""""&amp;N2&amp;""""&amp;","&amp;""""&amp;O2&amp;""""&amp;","&amp;""""&amp;P2&amp;""""&amp;","&amp;""""&amp;Q2&amp;""""</f>
-        <v>0,"12","20","1500","2","1000","1","40","0.2","600","0","0","0","0"</v>
+        <v>0,"12","20","1500","2","1000","1","0","0.2","600","0","0","0","0"</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -13030,7 +13030,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0.2</v>
@@ -13165,7 +13165,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E51" si="1">ROUNDDOWN(E4*1.5,0)</f>
+        <f t="shared" ref="E5:E9" si="1">ROUNDDOWN(E4*1.5,0)</f>
         <v>31</v>
       </c>
       <c r="F5">
@@ -13352,7 +13352,7 @@
         <v>28</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I5:I12" si="10">ROUNDDOWN(I7*1.02,0)</f>
+        <f t="shared" ref="I8" si="10">ROUNDDOWN(I7*1.02,0)</f>
         <v>1428</v>
       </c>
       <c r="J8">
@@ -13620,7 +13620,7 @@
         <v>11</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E51" si="11">ROUNDDOWN(E12*1.33,0)</f>
+        <f t="shared" ref="E13:E23" si="11">ROUNDDOWN(E12*1.33,0)</f>
         <v>477</v>
       </c>
       <c r="F13">
@@ -14208,7 +14208,7 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25:E51" si="12">ROUNDDOWN(E24*1.2,0)</f>
+        <f t="shared" ref="E25:E36" si="12">ROUNDDOWN(E24*1.2,0)</f>
         <v>11863</v>
       </c>
       <c r="F25">
@@ -15533,7 +15533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4DC91B-F471-4251-A770-7CE1E2FE12BD}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
